--- a/demoqa..xlsx
+++ b/demoqa..xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\demoqa.com-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99044118-9A1C-45D9-A1A4-2FF297A906D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927A8635-EA62-47A8-8C5D-AE4756496538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{62096CB2-8557-4398-98F3-8C27A07D2E13}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="141">
   <si>
     <t xml:space="preserve">test case name </t>
   </si>
@@ -93,13 +93,7 @@
     <t>Test Case ID</t>
   </si>
   <si>
-    <t>BU_001</t>
-  </si>
-  <si>
     <t>Test Case Description</t>
-  </si>
-  <si>
-    <t>Test the Login Functionality in Banking</t>
   </si>
   <si>
     <t>Pass/fail</t>
@@ -444,14 +438,51 @@
     <t>11 test that the picture is uploaded</t>
   </si>
   <si>
-    <t>12 test that the button is enabled after 5 seconds</t>
-  </si>
-  <si>
-    <t>13 test that the writing on the button change color
+    <t>TC_015</t>
+  </si>
+  <si>
+    <t>Test that the first button cannot be clicked on right away</t>
+  </si>
+  <si>
+    <t>the button is not clickable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on the first button
+</t>
+  </si>
+  <si>
+    <t>TC_016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on Dynamic Properties
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on the second button
+</t>
+  </si>
+  <si>
+    <t>the color stays the same</t>
+  </si>
+  <si>
+    <t>12 test that the first button is enabled after 5 seconds</t>
+  </si>
+  <si>
+    <t>13 test that the writing on the second button change color
  after five seconds</t>
   </si>
   <si>
-    <t>14 test that the button is visible after 5 seconds</t>
+    <t>14 test that the third button is visible after 5 seconds</t>
+  </si>
+  <si>
+    <t>15 test that the first button is not clickable right away</t>
+  </si>
+  <si>
+    <t>16 test that the text on the second button does 
+not change color right away</t>
+  </si>
+  <si>
+    <t>Test that the text on the second button does not change color right away</t>
   </si>
 </sst>
 </file>
@@ -1008,79 +1039,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1096,7 +1054,80 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1422,10 +1453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5648FEF7-E06A-4387-873A-E9C19D2920A5}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1461,7 +1492,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1488,7 +1519,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1501,7 +1532,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>10</v>
@@ -1509,7 +1540,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>10</v>
@@ -1517,7 +1548,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>10</v>
@@ -1525,7 +1556,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>10</v>
@@ -1533,7 +1564,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>10</v>
@@ -1541,7 +1572,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>10</v>
@@ -1549,15 +1580,15 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>10</v>
@@ -1565,9 +1596,25 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B16" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="24" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1578,10 +1625,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BE1CB6-45C4-4F48-9E69-C76E4B1BD6EB}">
-  <dimension ref="A2:M170"/>
+  <dimension ref="A2:M192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="Q155" sqref="Q155"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="F172" sqref="F172:K172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1592,25 +1639,25 @@
   <sheetData>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="62"/>
+        <v>27</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="32"/>
+      <c r="F3" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="35"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
     </row>
@@ -1630,48 +1677,48 @@
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="55" t="s">
+      <c r="D5" s="50"/>
+      <c r="E5" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="57"/>
+      <c r="G5" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="48" t="s">
-        <v>24</v>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="47" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="49"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="48"/>
     </row>
     <row r="7" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
@@ -1680,18 +1727,18 @@
       <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="45"/>
+      <c r="C7" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="44"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="43"/>
       <c r="M7" s="18"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1701,20 +1748,20 @@
       <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="41" t="s">
+      <c r="C8" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="45"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="43"/>
       <c r="M8" s="18"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1722,22 +1769,22 @@
         <v>3</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="63" t="s">
+      <c r="D9" s="39"/>
+      <c r="E9" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="45"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="43"/>
       <c r="M9" s="18"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1745,20 +1792,20 @@
         <v>4</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="41" t="s">
+      <c r="C10" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="39"/>
+      <c r="E10" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="45"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="43"/>
       <c r="M10" s="18"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1766,20 +1813,20 @@
         <v>5</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="41" t="s">
+      <c r="C11" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="45"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="43"/>
       <c r="M11" s="18"/>
     </row>
     <row r="12" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1787,47 +1834,47 @@
         <v>6</v>
       </c>
       <c r="B12" s="20"/>
-      <c r="C12" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="33" t="s">
+      <c r="C12" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="33" t="s">
+      <c r="H12" s="53"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="34"/>
-      <c r="L12" s="35"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="54"/>
       <c r="M12" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="59"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="62"/>
+        <v>36</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="35"/>
       <c r="L14" s="13"/>
       <c r="M14" s="14"/>
     </row>
@@ -1847,48 +1894,48 @@
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="55" t="s">
+      <c r="D16" s="50"/>
+      <c r="E16" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="57"/>
+      <c r="G16" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="56"/>
-      <c r="G16" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="48" t="s">
-        <v>24</v>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="47" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="52"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="49"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="48"/>
     </row>
     <row r="18" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
@@ -1897,18 +1944,18 @@
       <c r="B18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="45"/>
+      <c r="C18" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="43"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="43"/>
       <c r="M18" s="18"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -1918,18 +1965,18 @@
       <c r="B19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="45"/>
+      <c r="C19" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="43"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="43"/>
       <c r="M19" s="18"/>
     </row>
     <row r="20" spans="1:13" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1937,22 +1984,22 @@
         <v>3</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="44"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" s="44"/>
-      <c r="L20" s="45"/>
+        <v>29</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="42"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="42"/>
+      <c r="L20" s="43"/>
       <c r="M20" s="23" t="s">
         <v>10</v>
       </c>
@@ -1962,16 +2009,16 @@
         <v>4</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="45"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="43"/>
       <c r="M21" s="18"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -1979,16 +2026,16 @@
         <v>5</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="45"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="43"/>
       <c r="M22" s="18"/>
     </row>
     <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1996,39 +2043,39 @@
         <v>6</v>
       </c>
       <c r="B23" s="20"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="54"/>
       <c r="M23" s="21"/>
     </row>
     <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="59"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="62"/>
+        <v>42</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="32"/>
+      <c r="F25" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="35"/>
       <c r="L25" s="13"/>
       <c r="M25" s="14"/>
     </row>
@@ -2048,48 +2095,48 @@
       <c r="M26" s="16"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="55" t="s">
+      <c r="D27" s="50"/>
+      <c r="E27" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="57"/>
+      <c r="G27" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="56"/>
-      <c r="G27" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="48" t="s">
-        <v>24</v>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="47" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="52"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="49"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="48"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
@@ -2098,18 +2145,18 @@
       <c r="B29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="45"/>
+      <c r="C29" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="44"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="43"/>
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2119,18 +2166,18 @@
       <c r="B30" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="50"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="45"/>
+      <c r="C30" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="44"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="43"/>
       <c r="M30" s="18"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -2138,24 +2185,24 @@
         <v>3</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="42"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="H31" s="44"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="K31" s="44"/>
-      <c r="L31" s="45"/>
+        <v>29</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="39"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="42"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="42"/>
+      <c r="L31" s="43"/>
       <c r="M31" s="23" t="s">
         <v>10</v>
       </c>
@@ -2165,16 +2212,16 @@
         <v>4</v>
       </c>
       <c r="B32" s="7"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="45"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="43"/>
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -2182,16 +2229,16 @@
         <v>5</v>
       </c>
       <c r="B33" s="7"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="45"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="43"/>
       <c r="M33" s="18"/>
     </row>
     <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2199,39 +2246,39 @@
         <v>6</v>
       </c>
       <c r="B34" s="20"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="35"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="54"/>
       <c r="M34" s="21"/>
     </row>
     <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="59"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" s="59"/>
-      <c r="F36" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="62"/>
+        <v>48</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="32"/>
+      <c r="F36" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="35"/>
       <c r="L36" s="13"/>
       <c r="M36" s="14"/>
     </row>
@@ -2251,48 +2298,48 @@
       <c r="M37" s="16"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="53"/>
-      <c r="E38" s="55" t="s">
+      <c r="D38" s="50"/>
+      <c r="E38" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="57"/>
+      <c r="G38" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="F38" s="56"/>
-      <c r="G38" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="K38" s="47"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="48" t="s">
-        <v>24</v>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="47" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="52"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="49"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="48"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="17">
@@ -2301,18 +2348,18 @@
       <c r="B40" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="50"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="45"/>
+      <c r="C40" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="44"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="43"/>
       <c r="M40" s="18"/>
     </row>
     <row r="41" spans="1:13" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2322,22 +2369,22 @@
       <c r="B41" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="42"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="H41" s="44"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="K41" s="44"/>
-      <c r="L41" s="45"/>
+      <c r="C41" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="39"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="H41" s="42"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="K41" s="42"/>
+      <c r="L41" s="43"/>
       <c r="M41" s="18"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -2345,24 +2392,24 @@
         <v>3</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="42"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="H42" s="44"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="K42" s="44"/>
-      <c r="L42" s="45"/>
+        <v>29</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="39"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="H42" s="42"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="K42" s="42"/>
+      <c r="L42" s="43"/>
       <c r="M42" s="18"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
@@ -2370,22 +2417,22 @@
         <v>4</v>
       </c>
       <c r="B43" s="7"/>
-      <c r="C43" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="D43" s="42"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="H43" s="44"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="K43" s="44"/>
-      <c r="L43" s="45"/>
+      <c r="C43" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="39"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="H43" s="42"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="K43" s="42"/>
+      <c r="L43" s="43"/>
       <c r="M43" s="23" t="s">
         <v>10</v>
       </c>
@@ -2395,16 +2442,16 @@
         <v>5</v>
       </c>
       <c r="B44" s="7"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="45"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="43"/>
       <c r="M44" s="18"/>
     </row>
     <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2412,39 +2459,39 @@
         <v>6</v>
       </c>
       <c r="B45" s="20"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="35"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="54"/>
       <c r="M45" s="21"/>
     </row>
     <row r="46" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="58" t="s">
+      <c r="A47" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="59"/>
+      <c r="B47" s="32"/>
       <c r="C47" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" s="59"/>
-      <c r="F47" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="62"/>
+        <v>57</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="32"/>
+      <c r="F47" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="35"/>
       <c r="L47" s="13"/>
       <c r="M47" s="14"/>
     </row>
@@ -2464,48 +2511,48 @@
       <c r="M48" s="16"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="51" t="s">
+      <c r="A49" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="46" t="s">
+      <c r="C49" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="53"/>
-      <c r="E49" s="55" t="s">
+      <c r="D49" s="50"/>
+      <c r="E49" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" s="57"/>
+      <c r="G49" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="F49" s="56"/>
-      <c r="G49" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="K49" s="47"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="48" t="s">
-        <v>24</v>
+      <c r="K49" s="51"/>
+      <c r="L49" s="51"/>
+      <c r="M49" s="47" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="52"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="47"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="49"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="51"/>
+      <c r="M50" s="48"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="17">
@@ -2514,18 +2561,18 @@
       <c r="B51" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="D51" s="50"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="45"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="44"/>
-      <c r="L51" s="45"/>
+      <c r="C51" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="44"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="43"/>
       <c r="M51" s="18"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
@@ -2535,18 +2582,18 @@
       <c r="B52" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="D52" s="42"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="44"/>
-      <c r="L52" s="45"/>
+      <c r="C52" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="39"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="43"/>
       <c r="M52" s="18"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
@@ -2554,22 +2601,22 @@
         <v>3</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C53" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="D53" s="42"/>
-      <c r="E53" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="F53" s="41"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="43"/>
-      <c r="K53" s="44"/>
-      <c r="L53" s="45"/>
+        <v>29</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="39"/>
+      <c r="E53" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F53" s="38"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="43"/>
       <c r="M53" s="18"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
@@ -2577,20 +2624,20 @@
         <v>4</v>
       </c>
       <c r="B54" s="7"/>
-      <c r="C54" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="D54" s="42"/>
-      <c r="E54" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="F54" s="41"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="43"/>
-      <c r="K54" s="44"/>
-      <c r="L54" s="45"/>
+      <c r="C54" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" s="39"/>
+      <c r="E54" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="38"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="43"/>
       <c r="M54" s="18"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
@@ -2598,20 +2645,20 @@
         <v>5</v>
       </c>
       <c r="B55" s="7"/>
-      <c r="C55" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D55" s="42"/>
-      <c r="E55" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="F55" s="41"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="43"/>
-      <c r="K55" s="44"/>
-      <c r="L55" s="45"/>
+      <c r="C55" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D55" s="39"/>
+      <c r="E55" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="F55" s="38"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="43"/>
       <c r="M55" s="18"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
@@ -2619,20 +2666,20 @@
         <v>6</v>
       </c>
       <c r="B56" s="7"/>
-      <c r="C56" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56" s="42"/>
-      <c r="E56" s="41">
+      <c r="C56" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" s="39"/>
+      <c r="E56" s="38">
         <v>35</v>
       </c>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
-      <c r="K56" s="41"/>
-      <c r="L56" s="41"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
       <c r="M56" s="18"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
@@ -2640,20 +2687,20 @@
         <v>7</v>
       </c>
       <c r="B57" s="29"/>
-      <c r="C57" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D57" s="37"/>
-      <c r="E57" s="36">
+      <c r="C57" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" s="60"/>
+      <c r="E57" s="59">
         <v>10000</v>
       </c>
-      <c r="F57" s="36"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="38"/>
-      <c r="K57" s="39"/>
-      <c r="L57" s="40"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="62"/>
+      <c r="I57" s="63"/>
+      <c r="J57" s="61"/>
+      <c r="K57" s="62"/>
+      <c r="L57" s="63"/>
       <c r="M57" s="30"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
@@ -2661,20 +2708,20 @@
         <v>8</v>
       </c>
       <c r="B58" s="7"/>
-      <c r="C58" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="D58" s="42"/>
-      <c r="E58" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="F58" s="41"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="43"/>
-      <c r="K58" s="44"/>
-      <c r="L58" s="45"/>
+      <c r="C58" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" s="39"/>
+      <c r="E58" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="F58" s="38"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="43"/>
       <c r="M58" s="18"/>
     </row>
     <row r="59" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2682,22 +2729,22 @@
         <v>9</v>
       </c>
       <c r="B59" s="20"/>
-      <c r="C59" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D59" s="32"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="H59" s="34"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="K59" s="34"/>
-      <c r="L59" s="35"/>
+      <c r="C59" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59" s="37"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="H59" s="53"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="K59" s="53"/>
+      <c r="L59" s="54"/>
       <c r="M59" s="22" t="s">
         <v>10</v>
       </c>
@@ -2719,25 +2766,25 @@
     </row>
     <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" s="58" t="s">
+      <c r="A62" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B62" s="59"/>
+      <c r="B62" s="32"/>
       <c r="C62" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D62" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="E62" s="59"/>
-      <c r="F62" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="G62" s="61"/>
-      <c r="H62" s="61"/>
-      <c r="I62" s="61"/>
-      <c r="J62" s="61"/>
-      <c r="K62" s="62"/>
+        <v>72</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="32"/>
+      <c r="F62" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="35"/>
       <c r="L62" s="13"/>
       <c r="M62" s="14"/>
     </row>
@@ -2757,48 +2804,48 @@
       <c r="M63" s="16"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" s="51" t="s">
+      <c r="A64" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B64" s="46" t="s">
+      <c r="B64" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="46" t="s">
+      <c r="C64" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D64" s="53"/>
-      <c r="E64" s="55" t="s">
+      <c r="D64" s="50"/>
+      <c r="E64" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="57"/>
+      <c r="G64" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" s="51"/>
+      <c r="I64" s="51"/>
+      <c r="J64" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="F64" s="56"/>
-      <c r="G64" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="H64" s="47"/>
-      <c r="I64" s="47"/>
-      <c r="J64" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="K64" s="47"/>
-      <c r="L64" s="47"/>
-      <c r="M64" s="48" t="s">
-        <v>24</v>
+      <c r="K64" s="51"/>
+      <c r="L64" s="51"/>
+      <c r="M64" s="47" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A65" s="52"/>
-      <c r="B65" s="53"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="57"/>
-      <c r="F65" s="57"/>
-      <c r="G65" s="47"/>
-      <c r="H65" s="47"/>
-      <c r="I65" s="47"/>
-      <c r="J65" s="47"/>
-      <c r="K65" s="47"/>
-      <c r="L65" s="47"/>
-      <c r="M65" s="49"/>
+      <c r="A65" s="46"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="51"/>
+      <c r="L65" s="51"/>
+      <c r="M65" s="48"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="17">
@@ -2807,18 +2854,18 @@
       <c r="B66" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="D66" s="50"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="44"/>
-      <c r="I66" s="45"/>
-      <c r="J66" s="43"/>
-      <c r="K66" s="44"/>
-      <c r="L66" s="45"/>
+      <c r="C66" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D66" s="44"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="41"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="43"/>
       <c r="M66" s="18"/>
     </row>
     <row r="67" spans="1:13" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2828,22 +2875,22 @@
       <c r="B67" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="D67" s="42"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="H67" s="44"/>
-      <c r="I67" s="45"/>
-      <c r="J67" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="K67" s="44"/>
-      <c r="L67" s="45"/>
+      <c r="C67" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D67" s="39"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="H67" s="42"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="K67" s="42"/>
+      <c r="L67" s="43"/>
       <c r="M67" s="18"/>
     </row>
     <row r="68" spans="1:13" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2851,24 +2898,24 @@
         <v>3</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C68" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="D68" s="42"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="41"/>
-      <c r="G68" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="H68" s="44"/>
-      <c r="I68" s="45"/>
-      <c r="J68" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="K68" s="44"/>
-      <c r="L68" s="45"/>
+        <v>29</v>
+      </c>
+      <c r="C68" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D68" s="39"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H68" s="42"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="K68" s="42"/>
+      <c r="L68" s="43"/>
       <c r="M68" s="18"/>
     </row>
     <row r="69" spans="1:13" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2876,22 +2923,22 @@
         <v>4</v>
       </c>
       <c r="B69" s="7"/>
-      <c r="C69" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="D69" s="42"/>
-      <c r="E69" s="41"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="H69" s="44"/>
-      <c r="I69" s="45"/>
-      <c r="J69" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="K69" s="44"/>
-      <c r="L69" s="45"/>
+      <c r="C69" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" s="39"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="H69" s="42"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="K69" s="42"/>
+      <c r="L69" s="43"/>
       <c r="M69" s="23" t="s">
         <v>10</v>
       </c>
@@ -2901,16 +2948,16 @@
         <v>5</v>
       </c>
       <c r="B70" s="7"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="41"/>
-      <c r="G70" s="43"/>
-      <c r="H70" s="44"/>
-      <c r="I70" s="45"/>
-      <c r="J70" s="43"/>
-      <c r="K70" s="44"/>
-      <c r="L70" s="45"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="43"/>
+      <c r="J70" s="41"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="43"/>
       <c r="M70" s="18"/>
     </row>
     <row r="71" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2918,39 +2965,39 @@
         <v>6</v>
       </c>
       <c r="B71" s="20"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="33"/>
-      <c r="K71" s="34"/>
-      <c r="L71" s="35"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="52"/>
+      <c r="H71" s="53"/>
+      <c r="I71" s="54"/>
+      <c r="J71" s="52"/>
+      <c r="K71" s="53"/>
+      <c r="L71" s="54"/>
       <c r="M71" s="21"/>
     </row>
     <row r="72" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A73" s="58" t="s">
+      <c r="A73" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B73" s="59"/>
+      <c r="B73" s="32"/>
       <c r="C73" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D73" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="E73" s="59"/>
-      <c r="F73" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="G73" s="61"/>
-      <c r="H73" s="61"/>
-      <c r="I73" s="61"/>
-      <c r="J73" s="61"/>
-      <c r="K73" s="62"/>
+        <v>81</v>
+      </c>
+      <c r="D73" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" s="32"/>
+      <c r="F73" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="35"/>
       <c r="L73" s="13"/>
       <c r="M73" s="14"/>
     </row>
@@ -2970,48 +3017,48 @@
       <c r="M74" s="16"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A75" s="51" t="s">
+      <c r="A75" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B75" s="46" t="s">
+      <c r="B75" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="46" t="s">
+      <c r="C75" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="53"/>
-      <c r="E75" s="55" t="s">
+      <c r="D75" s="50"/>
+      <c r="E75" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" s="57"/>
+      <c r="G75" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75" s="51"/>
+      <c r="I75" s="51"/>
+      <c r="J75" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="F75" s="56"/>
-      <c r="G75" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="H75" s="47"/>
-      <c r="I75" s="47"/>
-      <c r="J75" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="K75" s="47"/>
-      <c r="L75" s="47"/>
-      <c r="M75" s="48" t="s">
-        <v>24</v>
+      <c r="K75" s="51"/>
+      <c r="L75" s="51"/>
+      <c r="M75" s="47" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A76" s="52"/>
-      <c r="B76" s="53"/>
-      <c r="C76" s="54"/>
-      <c r="D76" s="54"/>
-      <c r="E76" s="57"/>
-      <c r="F76" s="57"/>
-      <c r="G76" s="47"/>
-      <c r="H76" s="47"/>
-      <c r="I76" s="47"/>
-      <c r="J76" s="47"/>
-      <c r="K76" s="47"/>
-      <c r="L76" s="47"/>
-      <c r="M76" s="49"/>
+      <c r="A76" s="46"/>
+      <c r="B76" s="50"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="58"/>
+      <c r="F76" s="58"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="51"/>
+      <c r="J76" s="51"/>
+      <c r="K76" s="51"/>
+      <c r="L76" s="51"/>
+      <c r="M76" s="48"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="17">
@@ -3020,18 +3067,18 @@
       <c r="B77" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C77" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="D77" s="50"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="41"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="44"/>
-      <c r="I77" s="45"/>
-      <c r="J77" s="43"/>
-      <c r="K77" s="44"/>
-      <c r="L77" s="45"/>
+      <c r="C77" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D77" s="44"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="43"/>
+      <c r="J77" s="41"/>
+      <c r="K77" s="42"/>
+      <c r="L77" s="43"/>
       <c r="M77" s="18"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
@@ -3041,18 +3088,18 @@
       <c r="B78" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C78" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="D78" s="42"/>
-      <c r="E78" s="41"/>
-      <c r="F78" s="41"/>
-      <c r="G78" s="43"/>
-      <c r="H78" s="44"/>
-      <c r="I78" s="45"/>
-      <c r="J78" s="43"/>
-      <c r="K78" s="44"/>
-      <c r="L78" s="45"/>
+      <c r="C78" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" s="39"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="43"/>
+      <c r="J78" s="41"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="43"/>
       <c r="M78" s="18"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
@@ -3060,22 +3107,22 @@
         <v>3</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C79" s="41"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="41"/>
-      <c r="F79" s="41"/>
-      <c r="G79" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="H79" s="44"/>
-      <c r="I79" s="45"/>
-      <c r="J79" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="K79" s="44"/>
-      <c r="L79" s="45"/>
+        <v>29</v>
+      </c>
+      <c r="C79" s="38"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="H79" s="42"/>
+      <c r="I79" s="43"/>
+      <c r="J79" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="K79" s="42"/>
+      <c r="L79" s="43"/>
       <c r="M79" s="23" t="s">
         <v>10</v>
       </c>
@@ -3085,16 +3132,16 @@
         <v>4</v>
       </c>
       <c r="B80" s="7"/>
-      <c r="C80" s="41"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="41"/>
-      <c r="F80" s="41"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="44"/>
-      <c r="I80" s="45"/>
-      <c r="J80" s="43"/>
-      <c r="K80" s="44"/>
-      <c r="L80" s="45"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="38"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="43"/>
+      <c r="J80" s="41"/>
+      <c r="K80" s="42"/>
+      <c r="L80" s="43"/>
       <c r="M80" s="18"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
@@ -3102,16 +3149,16 @@
         <v>5</v>
       </c>
       <c r="B81" s="7"/>
-      <c r="C81" s="41"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="41"/>
-      <c r="F81" s="41"/>
-      <c r="G81" s="43"/>
-      <c r="H81" s="44"/>
-      <c r="I81" s="45"/>
-      <c r="J81" s="43"/>
-      <c r="K81" s="44"/>
-      <c r="L81" s="45"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="38"/>
+      <c r="F81" s="38"/>
+      <c r="G81" s="41"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="43"/>
+      <c r="J81" s="41"/>
+      <c r="K81" s="42"/>
+      <c r="L81" s="43"/>
       <c r="M81" s="18"/>
     </row>
     <row r="82" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3119,39 +3166,39 @@
         <v>6</v>
       </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="32"/>
-      <c r="E82" s="31"/>
-      <c r="F82" s="31"/>
-      <c r="G82" s="33"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="35"/>
-      <c r="J82" s="33"/>
-      <c r="K82" s="34"/>
-      <c r="L82" s="35"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="52"/>
+      <c r="H82" s="53"/>
+      <c r="I82" s="54"/>
+      <c r="J82" s="52"/>
+      <c r="K82" s="53"/>
+      <c r="L82" s="54"/>
       <c r="M82" s="21"/>
     </row>
     <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A84" s="58" t="s">
+      <c r="A84" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B84" s="59"/>
+      <c r="B84" s="32"/>
       <c r="C84" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D84" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="E84" s="59"/>
-      <c r="F84" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="G84" s="61"/>
-      <c r="H84" s="61"/>
-      <c r="I84" s="61"/>
-      <c r="J84" s="61"/>
-      <c r="K84" s="62"/>
+        <v>86</v>
+      </c>
+      <c r="D84" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E84" s="32"/>
+      <c r="F84" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G84" s="34"/>
+      <c r="H84" s="34"/>
+      <c r="I84" s="34"/>
+      <c r="J84" s="34"/>
+      <c r="K84" s="35"/>
       <c r="L84" s="13"/>
       <c r="M84" s="14"/>
     </row>
@@ -3171,48 +3218,48 @@
       <c r="M85" s="16"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A86" s="51" t="s">
+      <c r="A86" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B86" s="46" t="s">
+      <c r="B86" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C86" s="46" t="s">
+      <c r="C86" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D86" s="53"/>
-      <c r="E86" s="55" t="s">
+      <c r="D86" s="50"/>
+      <c r="E86" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F86" s="57"/>
+      <c r="G86" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H86" s="51"/>
+      <c r="I86" s="51"/>
+      <c r="J86" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="F86" s="56"/>
-      <c r="G86" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="H86" s="47"/>
-      <c r="I86" s="47"/>
-      <c r="J86" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="K86" s="47"/>
-      <c r="L86" s="47"/>
-      <c r="M86" s="48" t="s">
-        <v>24</v>
+      <c r="K86" s="51"/>
+      <c r="L86" s="51"/>
+      <c r="M86" s="47" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A87" s="52"/>
-      <c r="B87" s="53"/>
-      <c r="C87" s="54"/>
-      <c r="D87" s="54"/>
-      <c r="E87" s="57"/>
-      <c r="F87" s="57"/>
-      <c r="G87" s="47"/>
-      <c r="H87" s="47"/>
-      <c r="I87" s="47"/>
-      <c r="J87" s="47"/>
-      <c r="K87" s="47"/>
-      <c r="L87" s="47"/>
-      <c r="M87" s="49"/>
+      <c r="A87" s="46"/>
+      <c r="B87" s="50"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="55"/>
+      <c r="E87" s="58"/>
+      <c r="F87" s="58"/>
+      <c r="G87" s="51"/>
+      <c r="H87" s="51"/>
+      <c r="I87" s="51"/>
+      <c r="J87" s="51"/>
+      <c r="K87" s="51"/>
+      <c r="L87" s="51"/>
+      <c r="M87" s="48"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="17">
@@ -3221,18 +3268,18 @@
       <c r="B88" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C88" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="D88" s="50"/>
-      <c r="E88" s="41"/>
-      <c r="F88" s="41"/>
-      <c r="G88" s="43"/>
-      <c r="H88" s="44"/>
-      <c r="I88" s="45"/>
-      <c r="J88" s="43"/>
-      <c r="K88" s="44"/>
-      <c r="L88" s="45"/>
+      <c r="C88" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D88" s="44"/>
+      <c r="E88" s="38"/>
+      <c r="F88" s="38"/>
+      <c r="G88" s="41"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="43"/>
+      <c r="J88" s="41"/>
+      <c r="K88" s="42"/>
+      <c r="L88" s="43"/>
       <c r="M88" s="18"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
@@ -3242,18 +3289,18 @@
       <c r="B89" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C89" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="D89" s="42"/>
-      <c r="E89" s="41"/>
-      <c r="F89" s="41"/>
-      <c r="G89" s="43"/>
-      <c r="H89" s="44"/>
-      <c r="I89" s="45"/>
-      <c r="J89" s="43"/>
-      <c r="K89" s="44"/>
-      <c r="L89" s="45"/>
+      <c r="C89" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D89" s="39"/>
+      <c r="E89" s="38"/>
+      <c r="F89" s="38"/>
+      <c r="G89" s="41"/>
+      <c r="H89" s="42"/>
+      <c r="I89" s="43"/>
+      <c r="J89" s="41"/>
+      <c r="K89" s="42"/>
+      <c r="L89" s="43"/>
       <c r="M89" s="18"/>
     </row>
     <row r="90" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -3261,22 +3308,22 @@
         <v>3</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C90" s="41"/>
-      <c r="D90" s="42"/>
-      <c r="E90" s="41"/>
-      <c r="F90" s="41"/>
-      <c r="G90" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="H90" s="44"/>
-      <c r="I90" s="45"/>
-      <c r="J90" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="K90" s="44"/>
-      <c r="L90" s="45"/>
+        <v>29</v>
+      </c>
+      <c r="C90" s="38"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="H90" s="42"/>
+      <c r="I90" s="43"/>
+      <c r="J90" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="K90" s="42"/>
+      <c r="L90" s="43"/>
       <c r="M90" s="23" t="s">
         <v>10</v>
       </c>
@@ -3286,16 +3333,16 @@
         <v>4</v>
       </c>
       <c r="B91" s="7"/>
-      <c r="C91" s="41"/>
-      <c r="D91" s="42"/>
-      <c r="E91" s="41"/>
-      <c r="F91" s="41"/>
-      <c r="G91" s="43"/>
-      <c r="H91" s="44"/>
-      <c r="I91" s="45"/>
-      <c r="J91" s="43"/>
-      <c r="K91" s="44"/>
-      <c r="L91" s="45"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="38"/>
+      <c r="F91" s="38"/>
+      <c r="G91" s="41"/>
+      <c r="H91" s="42"/>
+      <c r="I91" s="43"/>
+      <c r="J91" s="41"/>
+      <c r="K91" s="42"/>
+      <c r="L91" s="43"/>
       <c r="M91" s="18"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
@@ -3303,16 +3350,16 @@
         <v>5</v>
       </c>
       <c r="B92" s="7"/>
-      <c r="C92" s="41"/>
-      <c r="D92" s="42"/>
-      <c r="E92" s="41"/>
-      <c r="F92" s="41"/>
-      <c r="G92" s="43"/>
-      <c r="H92" s="44"/>
-      <c r="I92" s="45"/>
-      <c r="J92" s="43"/>
-      <c r="K92" s="44"/>
-      <c r="L92" s="45"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="38"/>
+      <c r="F92" s="38"/>
+      <c r="G92" s="41"/>
+      <c r="H92" s="42"/>
+      <c r="I92" s="43"/>
+      <c r="J92" s="41"/>
+      <c r="K92" s="42"/>
+      <c r="L92" s="43"/>
       <c r="M92" s="18"/>
     </row>
     <row r="93" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3320,39 +3367,39 @@
         <v>6</v>
       </c>
       <c r="B93" s="20"/>
-      <c r="C93" s="31"/>
-      <c r="D93" s="32"/>
-      <c r="E93" s="31"/>
-      <c r="F93" s="31"/>
-      <c r="G93" s="33"/>
-      <c r="H93" s="34"/>
-      <c r="I93" s="35"/>
-      <c r="J93" s="33"/>
-      <c r="K93" s="34"/>
-      <c r="L93" s="35"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="52"/>
+      <c r="H93" s="53"/>
+      <c r="I93" s="54"/>
+      <c r="J93" s="52"/>
+      <c r="K93" s="53"/>
+      <c r="L93" s="54"/>
       <c r="M93" s="21"/>
     </row>
     <row r="94" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A95" s="58" t="s">
+      <c r="A95" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B95" s="59"/>
+      <c r="B95" s="32"/>
       <c r="C95" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D95" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="E95" s="59"/>
-      <c r="F95" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="G95" s="61"/>
-      <c r="H95" s="61"/>
-      <c r="I95" s="61"/>
-      <c r="J95" s="61"/>
-      <c r="K95" s="62"/>
+        <v>97</v>
+      </c>
+      <c r="D95" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E95" s="32"/>
+      <c r="F95" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="G95" s="34"/>
+      <c r="H95" s="34"/>
+      <c r="I95" s="34"/>
+      <c r="J95" s="34"/>
+      <c r="K95" s="35"/>
       <c r="L95" s="13"/>
       <c r="M95" s="14"/>
     </row>
@@ -3372,48 +3419,48 @@
       <c r="M96" s="16"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A97" s="51" t="s">
+      <c r="A97" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B97" s="46" t="s">
+      <c r="B97" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C97" s="46" t="s">
+      <c r="C97" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D97" s="53"/>
-      <c r="E97" s="55" t="s">
+      <c r="D97" s="50"/>
+      <c r="E97" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F97" s="57"/>
+      <c r="G97" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H97" s="51"/>
+      <c r="I97" s="51"/>
+      <c r="J97" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="F97" s="56"/>
-      <c r="G97" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="H97" s="47"/>
-      <c r="I97" s="47"/>
-      <c r="J97" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="K97" s="47"/>
-      <c r="L97" s="47"/>
-      <c r="M97" s="48" t="s">
-        <v>24</v>
+      <c r="K97" s="51"/>
+      <c r="L97" s="51"/>
+      <c r="M97" s="47" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A98" s="52"/>
-      <c r="B98" s="53"/>
-      <c r="C98" s="54"/>
-      <c r="D98" s="54"/>
-      <c r="E98" s="57"/>
-      <c r="F98" s="57"/>
-      <c r="G98" s="47"/>
-      <c r="H98" s="47"/>
-      <c r="I98" s="47"/>
-      <c r="J98" s="47"/>
-      <c r="K98" s="47"/>
-      <c r="L98" s="47"/>
-      <c r="M98" s="49"/>
+      <c r="A98" s="46"/>
+      <c r="B98" s="50"/>
+      <c r="C98" s="55"/>
+      <c r="D98" s="55"/>
+      <c r="E98" s="58"/>
+      <c r="F98" s="58"/>
+      <c r="G98" s="51"/>
+      <c r="H98" s="51"/>
+      <c r="I98" s="51"/>
+      <c r="J98" s="51"/>
+      <c r="K98" s="51"/>
+      <c r="L98" s="51"/>
+      <c r="M98" s="48"/>
     </row>
     <row r="99" spans="1:13" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="17">
@@ -3422,18 +3469,18 @@
       <c r="B99" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C99" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="D99" s="50"/>
-      <c r="E99" s="41"/>
-      <c r="F99" s="41"/>
-      <c r="G99" s="43"/>
-      <c r="H99" s="44"/>
-      <c r="I99" s="45"/>
-      <c r="J99" s="43"/>
-      <c r="K99" s="44"/>
-      <c r="L99" s="45"/>
+      <c r="C99" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D99" s="44"/>
+      <c r="E99" s="38"/>
+      <c r="F99" s="38"/>
+      <c r="G99" s="41"/>
+      <c r="H99" s="42"/>
+      <c r="I99" s="43"/>
+      <c r="J99" s="41"/>
+      <c r="K99" s="42"/>
+      <c r="L99" s="43"/>
       <c r="M99" s="18"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
@@ -3443,18 +3490,18 @@
       <c r="B100" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C100" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="D100" s="42"/>
-      <c r="E100" s="41"/>
-      <c r="F100" s="41"/>
-      <c r="G100" s="43"/>
-      <c r="H100" s="44"/>
-      <c r="I100" s="45"/>
-      <c r="J100" s="43"/>
-      <c r="K100" s="44"/>
-      <c r="L100" s="45"/>
+      <c r="C100" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D100" s="39"/>
+      <c r="E100" s="38"/>
+      <c r="F100" s="38"/>
+      <c r="G100" s="41"/>
+      <c r="H100" s="42"/>
+      <c r="I100" s="43"/>
+      <c r="J100" s="41"/>
+      <c r="K100" s="42"/>
+      <c r="L100" s="43"/>
       <c r="M100" s="18"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
@@ -3462,22 +3509,22 @@
         <v>3</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C101" s="41"/>
-      <c r="D101" s="42"/>
-      <c r="E101" s="41"/>
-      <c r="F101" s="41"/>
-      <c r="G101" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="H101" s="44"/>
-      <c r="I101" s="45"/>
-      <c r="J101" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="K101" s="44"/>
-      <c r="L101" s="45"/>
+        <v>29</v>
+      </c>
+      <c r="C101" s="38"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="38"/>
+      <c r="F101" s="38"/>
+      <c r="G101" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="H101" s="42"/>
+      <c r="I101" s="43"/>
+      <c r="J101" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="K101" s="42"/>
+      <c r="L101" s="43"/>
       <c r="M101" s="23" t="s">
         <v>10</v>
       </c>
@@ -3487,16 +3534,16 @@
         <v>4</v>
       </c>
       <c r="B102" s="7"/>
-      <c r="C102" s="41"/>
-      <c r="D102" s="42"/>
-      <c r="E102" s="41"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="43"/>
-      <c r="H102" s="44"/>
-      <c r="I102" s="45"/>
-      <c r="J102" s="43"/>
-      <c r="K102" s="44"/>
-      <c r="L102" s="45"/>
+      <c r="C102" s="38"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="38"/>
+      <c r="F102" s="38"/>
+      <c r="G102" s="41"/>
+      <c r="H102" s="42"/>
+      <c r="I102" s="43"/>
+      <c r="J102" s="41"/>
+      <c r="K102" s="42"/>
+      <c r="L102" s="43"/>
       <c r="M102" s="18"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
@@ -3504,16 +3551,16 @@
         <v>5</v>
       </c>
       <c r="B103" s="7"/>
-      <c r="C103" s="41"/>
-      <c r="D103" s="42"/>
-      <c r="E103" s="41"/>
-      <c r="F103" s="41"/>
-      <c r="G103" s="43"/>
-      <c r="H103" s="44"/>
-      <c r="I103" s="45"/>
-      <c r="J103" s="43"/>
-      <c r="K103" s="44"/>
-      <c r="L103" s="45"/>
+      <c r="C103" s="38"/>
+      <c r="D103" s="39"/>
+      <c r="E103" s="38"/>
+      <c r="F103" s="38"/>
+      <c r="G103" s="41"/>
+      <c r="H103" s="42"/>
+      <c r="I103" s="43"/>
+      <c r="J103" s="41"/>
+      <c r="K103" s="42"/>
+      <c r="L103" s="43"/>
       <c r="M103" s="18"/>
     </row>
     <row r="104" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3521,39 +3568,39 @@
         <v>6</v>
       </c>
       <c r="B104" s="20"/>
-      <c r="C104" s="31"/>
-      <c r="D104" s="32"/>
-      <c r="E104" s="31"/>
-      <c r="F104" s="31"/>
-      <c r="G104" s="33"/>
-      <c r="H104" s="34"/>
-      <c r="I104" s="35"/>
-      <c r="J104" s="33"/>
-      <c r="K104" s="34"/>
-      <c r="L104" s="35"/>
+      <c r="C104" s="36"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="36"/>
+      <c r="F104" s="36"/>
+      <c r="G104" s="52"/>
+      <c r="H104" s="53"/>
+      <c r="I104" s="54"/>
+      <c r="J104" s="52"/>
+      <c r="K104" s="53"/>
+      <c r="L104" s="54"/>
       <c r="M104" s="21"/>
     </row>
     <row r="105" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A106" s="58" t="s">
+      <c r="A106" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B106" s="59"/>
+      <c r="B106" s="32"/>
       <c r="C106" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D106" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="E106" s="59"/>
-      <c r="F106" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="G106" s="61"/>
-      <c r="H106" s="61"/>
-      <c r="I106" s="61"/>
-      <c r="J106" s="61"/>
-      <c r="K106" s="62"/>
+        <v>100</v>
+      </c>
+      <c r="D106" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E106" s="32"/>
+      <c r="F106" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G106" s="34"/>
+      <c r="H106" s="34"/>
+      <c r="I106" s="34"/>
+      <c r="J106" s="34"/>
+      <c r="K106" s="35"/>
       <c r="L106" s="13"/>
       <c r="M106" s="14"/>
     </row>
@@ -3573,48 +3620,48 @@
       <c r="M107" s="16"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A108" s="51" t="s">
+      <c r="A108" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B108" s="46" t="s">
+      <c r="B108" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C108" s="46" t="s">
+      <c r="C108" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D108" s="53"/>
-      <c r="E108" s="55" t="s">
+      <c r="D108" s="50"/>
+      <c r="E108" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F108" s="57"/>
+      <c r="G108" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H108" s="51"/>
+      <c r="I108" s="51"/>
+      <c r="J108" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="F108" s="56"/>
-      <c r="G108" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="H108" s="47"/>
-      <c r="I108" s="47"/>
-      <c r="J108" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="K108" s="47"/>
-      <c r="L108" s="47"/>
-      <c r="M108" s="48" t="s">
-        <v>24</v>
+      <c r="K108" s="51"/>
+      <c r="L108" s="51"/>
+      <c r="M108" s="47" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A109" s="52"/>
-      <c r="B109" s="53"/>
-      <c r="C109" s="54"/>
-      <c r="D109" s="54"/>
-      <c r="E109" s="57"/>
-      <c r="F109" s="57"/>
-      <c r="G109" s="47"/>
-      <c r="H109" s="47"/>
-      <c r="I109" s="47"/>
-      <c r="J109" s="47"/>
-      <c r="K109" s="47"/>
-      <c r="L109" s="47"/>
-      <c r="M109" s="49"/>
+      <c r="A109" s="46"/>
+      <c r="B109" s="50"/>
+      <c r="C109" s="55"/>
+      <c r="D109" s="55"/>
+      <c r="E109" s="58"/>
+      <c r="F109" s="58"/>
+      <c r="G109" s="51"/>
+      <c r="H109" s="51"/>
+      <c r="I109" s="51"/>
+      <c r="J109" s="51"/>
+      <c r="K109" s="51"/>
+      <c r="L109" s="51"/>
+      <c r="M109" s="48"/>
     </row>
     <row r="110" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="17">
@@ -3623,18 +3670,18 @@
       <c r="B110" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C110" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="D110" s="50"/>
-      <c r="E110" s="41"/>
-      <c r="F110" s="41"/>
-      <c r="G110" s="43"/>
-      <c r="H110" s="44"/>
-      <c r="I110" s="45"/>
-      <c r="J110" s="43"/>
-      <c r="K110" s="44"/>
-      <c r="L110" s="45"/>
+      <c r="C110" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D110" s="44"/>
+      <c r="E110" s="38"/>
+      <c r="F110" s="38"/>
+      <c r="G110" s="41"/>
+      <c r="H110" s="42"/>
+      <c r="I110" s="43"/>
+      <c r="J110" s="41"/>
+      <c r="K110" s="42"/>
+      <c r="L110" s="43"/>
       <c r="M110" s="18"/>
     </row>
     <row r="111" spans="1:13" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3644,22 +3691,22 @@
       <c r="B111" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C111" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="D111" s="42"/>
-      <c r="E111" s="41"/>
-      <c r="F111" s="41"/>
-      <c r="G111" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="H111" s="44"/>
-      <c r="I111" s="45"/>
-      <c r="J111" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="K111" s="44"/>
-      <c r="L111" s="45"/>
+      <c r="C111" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D111" s="39"/>
+      <c r="E111" s="38"/>
+      <c r="F111" s="38"/>
+      <c r="G111" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="H111" s="42"/>
+      <c r="I111" s="43"/>
+      <c r="J111" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="K111" s="42"/>
+      <c r="L111" s="43"/>
       <c r="M111" s="23" t="s">
         <v>10</v>
       </c>
@@ -3669,18 +3716,18 @@
         <v>3</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C112" s="41"/>
-      <c r="D112" s="42"/>
-      <c r="E112" s="41"/>
-      <c r="F112" s="41"/>
-      <c r="G112" s="43"/>
-      <c r="H112" s="44"/>
-      <c r="I112" s="45"/>
-      <c r="J112" s="43"/>
-      <c r="K112" s="44"/>
-      <c r="L112" s="45"/>
+        <v>29</v>
+      </c>
+      <c r="C112" s="38"/>
+      <c r="D112" s="39"/>
+      <c r="E112" s="38"/>
+      <c r="F112" s="38"/>
+      <c r="G112" s="41"/>
+      <c r="H112" s="42"/>
+      <c r="I112" s="43"/>
+      <c r="J112" s="41"/>
+      <c r="K112" s="42"/>
+      <c r="L112" s="43"/>
       <c r="M112" s="18"/>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
@@ -3688,16 +3735,16 @@
         <v>4</v>
       </c>
       <c r="B113" s="7"/>
-      <c r="C113" s="41"/>
-      <c r="D113" s="42"/>
-      <c r="E113" s="41"/>
-      <c r="F113" s="41"/>
-      <c r="G113" s="43"/>
-      <c r="H113" s="44"/>
-      <c r="I113" s="45"/>
-      <c r="J113" s="43"/>
-      <c r="K113" s="44"/>
-      <c r="L113" s="45"/>
+      <c r="C113" s="38"/>
+      <c r="D113" s="39"/>
+      <c r="E113" s="38"/>
+      <c r="F113" s="38"/>
+      <c r="G113" s="41"/>
+      <c r="H113" s="42"/>
+      <c r="I113" s="43"/>
+      <c r="J113" s="41"/>
+      <c r="K113" s="42"/>
+      <c r="L113" s="43"/>
       <c r="M113" s="18"/>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
@@ -3705,16 +3752,16 @@
         <v>5</v>
       </c>
       <c r="B114" s="7"/>
-      <c r="C114" s="41"/>
-      <c r="D114" s="42"/>
-      <c r="E114" s="41"/>
-      <c r="F114" s="41"/>
-      <c r="G114" s="43"/>
-      <c r="H114" s="44"/>
-      <c r="I114" s="45"/>
-      <c r="J114" s="43"/>
-      <c r="K114" s="44"/>
-      <c r="L114" s="45"/>
+      <c r="C114" s="38"/>
+      <c r="D114" s="39"/>
+      <c r="E114" s="38"/>
+      <c r="F114" s="38"/>
+      <c r="G114" s="41"/>
+      <c r="H114" s="42"/>
+      <c r="I114" s="43"/>
+      <c r="J114" s="41"/>
+      <c r="K114" s="42"/>
+      <c r="L114" s="43"/>
       <c r="M114" s="18"/>
     </row>
     <row r="115" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3722,39 +3769,39 @@
         <v>6</v>
       </c>
       <c r="B115" s="20"/>
-      <c r="C115" s="31"/>
-      <c r="D115" s="32"/>
-      <c r="E115" s="31"/>
-      <c r="F115" s="31"/>
-      <c r="G115" s="33"/>
-      <c r="H115" s="34"/>
-      <c r="I115" s="35"/>
-      <c r="J115" s="33"/>
-      <c r="K115" s="34"/>
-      <c r="L115" s="35"/>
+      <c r="C115" s="36"/>
+      <c r="D115" s="37"/>
+      <c r="E115" s="36"/>
+      <c r="F115" s="36"/>
+      <c r="G115" s="52"/>
+      <c r="H115" s="53"/>
+      <c r="I115" s="54"/>
+      <c r="J115" s="52"/>
+      <c r="K115" s="53"/>
+      <c r="L115" s="54"/>
       <c r="M115" s="21"/>
     </row>
     <row r="116" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A117" s="58" t="s">
+      <c r="A117" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B117" s="59"/>
+      <c r="B117" s="32"/>
       <c r="C117" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D117" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="E117" s="59"/>
-      <c r="F117" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="G117" s="61"/>
-      <c r="H117" s="61"/>
-      <c r="I117" s="61"/>
-      <c r="J117" s="61"/>
-      <c r="K117" s="62"/>
+        <v>101</v>
+      </c>
+      <c r="D117" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E117" s="32"/>
+      <c r="F117" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="G117" s="34"/>
+      <c r="H117" s="34"/>
+      <c r="I117" s="34"/>
+      <c r="J117" s="34"/>
+      <c r="K117" s="35"/>
       <c r="L117" s="13"/>
       <c r="M117" s="14"/>
     </row>
@@ -3774,48 +3821,48 @@
       <c r="M118" s="16"/>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A119" s="51" t="s">
+      <c r="A119" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B119" s="46" t="s">
+      <c r="B119" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C119" s="46" t="s">
+      <c r="C119" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D119" s="53"/>
-      <c r="E119" s="55" t="s">
+      <c r="D119" s="50"/>
+      <c r="E119" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F119" s="57"/>
+      <c r="G119" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H119" s="51"/>
+      <c r="I119" s="51"/>
+      <c r="J119" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="F119" s="56"/>
-      <c r="G119" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="H119" s="47"/>
-      <c r="I119" s="47"/>
-      <c r="J119" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="K119" s="47"/>
-      <c r="L119" s="47"/>
-      <c r="M119" s="48" t="s">
-        <v>24</v>
+      <c r="K119" s="51"/>
+      <c r="L119" s="51"/>
+      <c r="M119" s="47" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A120" s="52"/>
-      <c r="B120" s="53"/>
-      <c r="C120" s="54"/>
-      <c r="D120" s="54"/>
-      <c r="E120" s="57"/>
-      <c r="F120" s="57"/>
-      <c r="G120" s="47"/>
-      <c r="H120" s="47"/>
-      <c r="I120" s="47"/>
-      <c r="J120" s="47"/>
-      <c r="K120" s="47"/>
-      <c r="L120" s="47"/>
-      <c r="M120" s="49"/>
+      <c r="A120" s="46"/>
+      <c r="B120" s="50"/>
+      <c r="C120" s="55"/>
+      <c r="D120" s="55"/>
+      <c r="E120" s="58"/>
+      <c r="F120" s="58"/>
+      <c r="G120" s="51"/>
+      <c r="H120" s="51"/>
+      <c r="I120" s="51"/>
+      <c r="J120" s="51"/>
+      <c r="K120" s="51"/>
+      <c r="L120" s="51"/>
+      <c r="M120" s="48"/>
     </row>
     <row r="121" spans="1:13" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="17">
@@ -3824,18 +3871,18 @@
       <c r="B121" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C121" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="D121" s="50"/>
-      <c r="E121" s="41"/>
-      <c r="F121" s="41"/>
-      <c r="G121" s="43"/>
-      <c r="H121" s="44"/>
-      <c r="I121" s="45"/>
-      <c r="J121" s="43"/>
-      <c r="K121" s="44"/>
-      <c r="L121" s="45"/>
+      <c r="C121" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D121" s="44"/>
+      <c r="E121" s="38"/>
+      <c r="F121" s="38"/>
+      <c r="G121" s="41"/>
+      <c r="H121" s="42"/>
+      <c r="I121" s="43"/>
+      <c r="J121" s="41"/>
+      <c r="K121" s="42"/>
+      <c r="L121" s="43"/>
       <c r="M121" s="18"/>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.3">
@@ -3845,18 +3892,18 @@
       <c r="B122" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C122" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D122" s="42"/>
-      <c r="E122" s="41"/>
-      <c r="F122" s="41"/>
-      <c r="G122" s="43"/>
-      <c r="H122" s="44"/>
-      <c r="I122" s="45"/>
-      <c r="J122" s="43"/>
-      <c r="K122" s="44"/>
-      <c r="L122" s="45"/>
+      <c r="C122" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D122" s="39"/>
+      <c r="E122" s="38"/>
+      <c r="F122" s="38"/>
+      <c r="G122" s="41"/>
+      <c r="H122" s="42"/>
+      <c r="I122" s="43"/>
+      <c r="J122" s="41"/>
+      <c r="K122" s="42"/>
+      <c r="L122" s="43"/>
       <c r="M122" s="18"/>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.3">
@@ -3864,26 +3911,26 @@
         <v>3</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C123" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C123" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D123" s="39"/>
+      <c r="E123" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="F123" s="38"/>
+      <c r="G123" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="D123" s="42"/>
-      <c r="E123" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="F123" s="41"/>
-      <c r="G123" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="H123" s="44"/>
-      <c r="I123" s="45"/>
-      <c r="J123" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="K123" s="44"/>
-      <c r="L123" s="45"/>
+      <c r="H123" s="42"/>
+      <c r="I123" s="43"/>
+      <c r="J123" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="K123" s="42"/>
+      <c r="L123" s="43"/>
       <c r="M123" s="23" t="s">
         <v>10</v>
       </c>
@@ -3893,16 +3940,16 @@
         <v>4</v>
       </c>
       <c r="B124" s="7"/>
-      <c r="C124" s="41"/>
-      <c r="D124" s="42"/>
-      <c r="E124" s="41"/>
-      <c r="F124" s="41"/>
-      <c r="G124" s="43"/>
-      <c r="H124" s="44"/>
-      <c r="I124" s="45"/>
-      <c r="J124" s="43"/>
-      <c r="K124" s="44"/>
-      <c r="L124" s="45"/>
+      <c r="C124" s="38"/>
+      <c r="D124" s="39"/>
+      <c r="E124" s="38"/>
+      <c r="F124" s="38"/>
+      <c r="G124" s="41"/>
+      <c r="H124" s="42"/>
+      <c r="I124" s="43"/>
+      <c r="J124" s="41"/>
+      <c r="K124" s="42"/>
+      <c r="L124" s="43"/>
       <c r="M124" s="18"/>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.3">
@@ -3910,16 +3957,16 @@
         <v>5</v>
       </c>
       <c r="B125" s="7"/>
-      <c r="C125" s="41"/>
-      <c r="D125" s="42"/>
-      <c r="E125" s="41"/>
-      <c r="F125" s="41"/>
-      <c r="G125" s="43"/>
-      <c r="H125" s="44"/>
-      <c r="I125" s="45"/>
-      <c r="J125" s="43"/>
-      <c r="K125" s="44"/>
-      <c r="L125" s="45"/>
+      <c r="C125" s="38"/>
+      <c r="D125" s="39"/>
+      <c r="E125" s="38"/>
+      <c r="F125" s="38"/>
+      <c r="G125" s="41"/>
+      <c r="H125" s="42"/>
+      <c r="I125" s="43"/>
+      <c r="J125" s="41"/>
+      <c r="K125" s="42"/>
+      <c r="L125" s="43"/>
       <c r="M125" s="18"/>
     </row>
     <row r="126" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3927,39 +3974,39 @@
         <v>6</v>
       </c>
       <c r="B126" s="20"/>
-      <c r="C126" s="31"/>
-      <c r="D126" s="32"/>
-      <c r="E126" s="31"/>
-      <c r="F126" s="31"/>
-      <c r="G126" s="33"/>
-      <c r="H126" s="34"/>
-      <c r="I126" s="35"/>
-      <c r="J126" s="33"/>
-      <c r="K126" s="34"/>
-      <c r="L126" s="35"/>
+      <c r="C126" s="36"/>
+      <c r="D126" s="37"/>
+      <c r="E126" s="36"/>
+      <c r="F126" s="36"/>
+      <c r="G126" s="52"/>
+      <c r="H126" s="53"/>
+      <c r="I126" s="54"/>
+      <c r="J126" s="52"/>
+      <c r="K126" s="53"/>
+      <c r="L126" s="54"/>
       <c r="M126" s="21"/>
     </row>
     <row r="127" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A128" s="58" t="s">
+      <c r="A128" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B128" s="59"/>
+      <c r="B128" s="32"/>
       <c r="C128" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D128" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="E128" s="59"/>
-      <c r="F128" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="G128" s="61"/>
-      <c r="H128" s="61"/>
-      <c r="I128" s="61"/>
-      <c r="J128" s="61"/>
-      <c r="K128" s="62"/>
+        <v>108</v>
+      </c>
+      <c r="D128" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E128" s="32"/>
+      <c r="F128" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="G128" s="34"/>
+      <c r="H128" s="34"/>
+      <c r="I128" s="34"/>
+      <c r="J128" s="34"/>
+      <c r="K128" s="35"/>
       <c r="L128" s="13"/>
       <c r="M128" s="14"/>
     </row>
@@ -3979,48 +4026,48 @@
       <c r="M129" s="16"/>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A130" s="51" t="s">
+      <c r="A130" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B130" s="46" t="s">
+      <c r="B130" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C130" s="46" t="s">
+      <c r="C130" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D130" s="53"/>
-      <c r="E130" s="55" t="s">
+      <c r="D130" s="50"/>
+      <c r="E130" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F130" s="57"/>
+      <c r="G130" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H130" s="51"/>
+      <c r="I130" s="51"/>
+      <c r="J130" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="F130" s="56"/>
-      <c r="G130" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="H130" s="47"/>
-      <c r="I130" s="47"/>
-      <c r="J130" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="K130" s="47"/>
-      <c r="L130" s="47"/>
-      <c r="M130" s="48" t="s">
-        <v>24</v>
+      <c r="K130" s="51"/>
+      <c r="L130" s="51"/>
+      <c r="M130" s="47" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A131" s="52"/>
-      <c r="B131" s="53"/>
-      <c r="C131" s="54"/>
-      <c r="D131" s="54"/>
-      <c r="E131" s="57"/>
-      <c r="F131" s="57"/>
-      <c r="G131" s="47"/>
-      <c r="H131" s="47"/>
-      <c r="I131" s="47"/>
-      <c r="J131" s="47"/>
-      <c r="K131" s="47"/>
-      <c r="L131" s="47"/>
-      <c r="M131" s="49"/>
+      <c r="A131" s="46"/>
+      <c r="B131" s="50"/>
+      <c r="C131" s="55"/>
+      <c r="D131" s="55"/>
+      <c r="E131" s="58"/>
+      <c r="F131" s="58"/>
+      <c r="G131" s="51"/>
+      <c r="H131" s="51"/>
+      <c r="I131" s="51"/>
+      <c r="J131" s="51"/>
+      <c r="K131" s="51"/>
+      <c r="L131" s="51"/>
+      <c r="M131" s="48"/>
     </row>
     <row r="132" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="17">
@@ -4029,18 +4076,18 @@
       <c r="B132" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C132" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="D132" s="50"/>
-      <c r="E132" s="41"/>
-      <c r="F132" s="41"/>
-      <c r="G132" s="43"/>
-      <c r="H132" s="44"/>
-      <c r="I132" s="45"/>
-      <c r="J132" s="43"/>
-      <c r="K132" s="44"/>
-      <c r="L132" s="45"/>
+      <c r="C132" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D132" s="44"/>
+      <c r="E132" s="38"/>
+      <c r="F132" s="38"/>
+      <c r="G132" s="41"/>
+      <c r="H132" s="42"/>
+      <c r="I132" s="43"/>
+      <c r="J132" s="41"/>
+      <c r="K132" s="42"/>
+      <c r="L132" s="43"/>
       <c r="M132" s="18"/>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.3">
@@ -4050,18 +4097,18 @@
       <c r="B133" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C133" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="D133" s="42"/>
-      <c r="E133" s="41"/>
-      <c r="F133" s="41"/>
-      <c r="G133" s="43"/>
-      <c r="H133" s="44"/>
-      <c r="I133" s="45"/>
-      <c r="J133" s="43"/>
-      <c r="K133" s="44"/>
-      <c r="L133" s="45"/>
+      <c r="C133" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D133" s="39"/>
+      <c r="E133" s="38"/>
+      <c r="F133" s="38"/>
+      <c r="G133" s="41"/>
+      <c r="H133" s="42"/>
+      <c r="I133" s="43"/>
+      <c r="J133" s="41"/>
+      <c r="K133" s="42"/>
+      <c r="L133" s="43"/>
       <c r="M133" s="18"/>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.3">
@@ -4069,22 +4116,22 @@
         <v>3</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C134" s="41"/>
-      <c r="D134" s="42"/>
-      <c r="E134" s="41"/>
-      <c r="F134" s="41"/>
-      <c r="G134" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="H134" s="44"/>
-      <c r="I134" s="45"/>
-      <c r="J134" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="K134" s="44"/>
-      <c r="L134" s="45"/>
+        <v>29</v>
+      </c>
+      <c r="C134" s="38"/>
+      <c r="D134" s="39"/>
+      <c r="E134" s="38"/>
+      <c r="F134" s="38"/>
+      <c r="G134" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="H134" s="42"/>
+      <c r="I134" s="43"/>
+      <c r="J134" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="K134" s="42"/>
+      <c r="L134" s="43"/>
       <c r="M134" s="23" t="s">
         <v>10</v>
       </c>
@@ -4094,16 +4141,16 @@
         <v>4</v>
       </c>
       <c r="B135" s="7"/>
-      <c r="C135" s="41"/>
-      <c r="D135" s="42"/>
-      <c r="E135" s="41"/>
-      <c r="F135" s="41"/>
-      <c r="G135" s="43"/>
-      <c r="H135" s="44"/>
-      <c r="I135" s="45"/>
-      <c r="J135" s="43"/>
-      <c r="K135" s="44"/>
-      <c r="L135" s="45"/>
+      <c r="C135" s="38"/>
+      <c r="D135" s="39"/>
+      <c r="E135" s="38"/>
+      <c r="F135" s="38"/>
+      <c r="G135" s="41"/>
+      <c r="H135" s="42"/>
+      <c r="I135" s="43"/>
+      <c r="J135" s="41"/>
+      <c r="K135" s="42"/>
+      <c r="L135" s="43"/>
       <c r="M135" s="18"/>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.3">
@@ -4111,16 +4158,16 @@
         <v>5</v>
       </c>
       <c r="B136" s="7"/>
-      <c r="C136" s="41"/>
-      <c r="D136" s="42"/>
-      <c r="E136" s="41"/>
-      <c r="F136" s="41"/>
-      <c r="G136" s="43"/>
-      <c r="H136" s="44"/>
-      <c r="I136" s="45"/>
-      <c r="J136" s="43"/>
-      <c r="K136" s="44"/>
-      <c r="L136" s="45"/>
+      <c r="C136" s="38"/>
+      <c r="D136" s="39"/>
+      <c r="E136" s="38"/>
+      <c r="F136" s="38"/>
+      <c r="G136" s="41"/>
+      <c r="H136" s="42"/>
+      <c r="I136" s="43"/>
+      <c r="J136" s="41"/>
+      <c r="K136" s="42"/>
+      <c r="L136" s="43"/>
       <c r="M136" s="18"/>
     </row>
     <row r="137" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4128,39 +4175,39 @@
         <v>6</v>
       </c>
       <c r="B137" s="20"/>
-      <c r="C137" s="31"/>
-      <c r="D137" s="32"/>
-      <c r="E137" s="31"/>
-      <c r="F137" s="31"/>
-      <c r="G137" s="33"/>
-      <c r="H137" s="34"/>
-      <c r="I137" s="35"/>
-      <c r="J137" s="33"/>
-      <c r="K137" s="34"/>
-      <c r="L137" s="35"/>
+      <c r="C137" s="36"/>
+      <c r="D137" s="37"/>
+      <c r="E137" s="36"/>
+      <c r="F137" s="36"/>
+      <c r="G137" s="52"/>
+      <c r="H137" s="53"/>
+      <c r="I137" s="54"/>
+      <c r="J137" s="52"/>
+      <c r="K137" s="53"/>
+      <c r="L137" s="54"/>
       <c r="M137" s="21"/>
     </row>
     <row r="138" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="139" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A139" s="58" t="s">
+      <c r="A139" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B139" s="59"/>
+      <c r="B139" s="32"/>
       <c r="C139" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D139" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="E139" s="59"/>
-      <c r="F139" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="G139" s="61"/>
-      <c r="H139" s="61"/>
-      <c r="I139" s="61"/>
-      <c r="J139" s="61"/>
-      <c r="K139" s="62"/>
+        <v>113</v>
+      </c>
+      <c r="D139" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E139" s="32"/>
+      <c r="F139" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="G139" s="34"/>
+      <c r="H139" s="34"/>
+      <c r="I139" s="34"/>
+      <c r="J139" s="34"/>
+      <c r="K139" s="35"/>
       <c r="L139" s="13"/>
       <c r="M139" s="14"/>
     </row>
@@ -4180,68 +4227,68 @@
       <c r="M140" s="16"/>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A141" s="51" t="s">
+      <c r="A141" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B141" s="46" t="s">
+      <c r="B141" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C141" s="46" t="s">
+      <c r="C141" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D141" s="53"/>
-      <c r="E141" s="55" t="s">
+      <c r="D141" s="50"/>
+      <c r="E141" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F141" s="57"/>
+      <c r="G141" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H141" s="51"/>
+      <c r="I141" s="51"/>
+      <c r="J141" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="F141" s="56"/>
-      <c r="G141" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="H141" s="47"/>
-      <c r="I141" s="47"/>
-      <c r="J141" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="K141" s="47"/>
-      <c r="L141" s="47"/>
-      <c r="M141" s="48" t="s">
-        <v>24</v>
+      <c r="K141" s="51"/>
+      <c r="L141" s="51"/>
+      <c r="M141" s="47" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A142" s="52"/>
-      <c r="B142" s="53"/>
-      <c r="C142" s="54"/>
-      <c r="D142" s="54"/>
-      <c r="E142" s="57"/>
-      <c r="F142" s="57"/>
-      <c r="G142" s="47"/>
-      <c r="H142" s="47"/>
-      <c r="I142" s="47"/>
-      <c r="J142" s="47"/>
-      <c r="K142" s="47"/>
-      <c r="L142" s="47"/>
-      <c r="M142" s="49"/>
-    </row>
-    <row r="143" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="46"/>
+      <c r="B142" s="50"/>
+      <c r="C142" s="55"/>
+      <c r="D142" s="55"/>
+      <c r="E142" s="58"/>
+      <c r="F142" s="58"/>
+      <c r="G142" s="51"/>
+      <c r="H142" s="51"/>
+      <c r="I142" s="51"/>
+      <c r="J142" s="51"/>
+      <c r="K142" s="51"/>
+      <c r="L142" s="51"/>
+      <c r="M142" s="48"/>
+    </row>
+    <row r="143" spans="1:13" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="17">
         <v>1</v>
       </c>
       <c r="B143" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C143" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="D143" s="50"/>
-      <c r="E143" s="41"/>
-      <c r="F143" s="41"/>
-      <c r="G143" s="43"/>
-      <c r="H143" s="44"/>
-      <c r="I143" s="45"/>
-      <c r="J143" s="43"/>
-      <c r="K143" s="44"/>
-      <c r="L143" s="45"/>
+      <c r="C143" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D143" s="44"/>
+      <c r="E143" s="38"/>
+      <c r="F143" s="38"/>
+      <c r="G143" s="41"/>
+      <c r="H143" s="42"/>
+      <c r="I143" s="43"/>
+      <c r="J143" s="41"/>
+      <c r="K143" s="42"/>
+      <c r="L143" s="43"/>
       <c r="M143" s="18"/>
     </row>
     <row r="144" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4251,18 +4298,18 @@
       <c r="B144" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C144" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="D144" s="42"/>
-      <c r="E144" s="41"/>
-      <c r="F144" s="41"/>
-      <c r="G144" s="43"/>
-      <c r="H144" s="44"/>
-      <c r="I144" s="45"/>
-      <c r="J144" s="43"/>
-      <c r="K144" s="44"/>
-      <c r="L144" s="45"/>
+      <c r="C144" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D144" s="39"/>
+      <c r="E144" s="38"/>
+      <c r="F144" s="38"/>
+      <c r="G144" s="41"/>
+      <c r="H144" s="42"/>
+      <c r="I144" s="43"/>
+      <c r="J144" s="41"/>
+      <c r="K144" s="42"/>
+      <c r="L144" s="43"/>
       <c r="M144" s="18"/>
     </row>
     <row r="145" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4270,24 +4317,24 @@
         <v>3</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C145" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="D145" s="42"/>
-      <c r="E145" s="41"/>
-      <c r="F145" s="41"/>
-      <c r="G145" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="H145" s="44"/>
-      <c r="I145" s="45"/>
-      <c r="J145" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="K145" s="44"/>
-      <c r="L145" s="45"/>
+        <v>29</v>
+      </c>
+      <c r="C145" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D145" s="39"/>
+      <c r="E145" s="38"/>
+      <c r="F145" s="38"/>
+      <c r="G145" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="H145" s="42"/>
+      <c r="I145" s="43"/>
+      <c r="J145" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="K145" s="42"/>
+      <c r="L145" s="43"/>
       <c r="M145" s="23" t="s">
         <v>10</v>
       </c>
@@ -4297,16 +4344,16 @@
         <v>4</v>
       </c>
       <c r="B146" s="7"/>
-      <c r="C146" s="41"/>
-      <c r="D146" s="42"/>
-      <c r="E146" s="41"/>
-      <c r="F146" s="41"/>
-      <c r="G146" s="43"/>
-      <c r="H146" s="44"/>
-      <c r="I146" s="45"/>
-      <c r="J146" s="43"/>
-      <c r="K146" s="44"/>
-      <c r="L146" s="45"/>
+      <c r="C146" s="38"/>
+      <c r="D146" s="39"/>
+      <c r="E146" s="38"/>
+      <c r="F146" s="38"/>
+      <c r="G146" s="41"/>
+      <c r="H146" s="42"/>
+      <c r="I146" s="43"/>
+      <c r="J146" s="41"/>
+      <c r="K146" s="42"/>
+      <c r="L146" s="43"/>
       <c r="M146" s="18"/>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.3">
@@ -4314,16 +4361,16 @@
         <v>5</v>
       </c>
       <c r="B147" s="7"/>
-      <c r="C147" s="41"/>
-      <c r="D147" s="42"/>
-      <c r="E147" s="41"/>
-      <c r="F147" s="41"/>
-      <c r="G147" s="43"/>
-      <c r="H147" s="44"/>
-      <c r="I147" s="45"/>
-      <c r="J147" s="43"/>
-      <c r="K147" s="44"/>
-      <c r="L147" s="45"/>
+      <c r="C147" s="38"/>
+      <c r="D147" s="39"/>
+      <c r="E147" s="38"/>
+      <c r="F147" s="38"/>
+      <c r="G147" s="41"/>
+      <c r="H147" s="42"/>
+      <c r="I147" s="43"/>
+      <c r="J147" s="41"/>
+      <c r="K147" s="42"/>
+      <c r="L147" s="43"/>
       <c r="M147" s="18"/>
     </row>
     <row r="148" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4331,39 +4378,39 @@
         <v>6</v>
       </c>
       <c r="B148" s="20"/>
-      <c r="C148" s="31"/>
-      <c r="D148" s="32"/>
-      <c r="E148" s="31"/>
-      <c r="F148" s="31"/>
-      <c r="G148" s="33"/>
-      <c r="H148" s="34"/>
-      <c r="I148" s="35"/>
-      <c r="J148" s="33"/>
-      <c r="K148" s="34"/>
-      <c r="L148" s="35"/>
+      <c r="C148" s="36"/>
+      <c r="D148" s="37"/>
+      <c r="E148" s="36"/>
+      <c r="F148" s="36"/>
+      <c r="G148" s="52"/>
+      <c r="H148" s="53"/>
+      <c r="I148" s="54"/>
+      <c r="J148" s="52"/>
+      <c r="K148" s="53"/>
+      <c r="L148" s="54"/>
       <c r="M148" s="21"/>
     </row>
     <row r="149" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="150" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A150" s="58" t="s">
+      <c r="A150" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B150" s="59"/>
+      <c r="B150" s="32"/>
       <c r="C150" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D150" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="E150" s="59"/>
-      <c r="F150" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="G150" s="61"/>
-      <c r="H150" s="61"/>
-      <c r="I150" s="61"/>
-      <c r="J150" s="61"/>
-      <c r="K150" s="62"/>
+        <v>117</v>
+      </c>
+      <c r="D150" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E150" s="32"/>
+      <c r="F150" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="G150" s="34"/>
+      <c r="H150" s="34"/>
+      <c r="I150" s="34"/>
+      <c r="J150" s="34"/>
+      <c r="K150" s="35"/>
       <c r="L150" s="13"/>
       <c r="M150" s="14"/>
     </row>
@@ -4383,68 +4430,68 @@
       <c r="M151" s="16"/>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A152" s="51" t="s">
+      <c r="A152" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B152" s="46" t="s">
+      <c r="B152" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C152" s="46" t="s">
+      <c r="C152" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D152" s="53"/>
-      <c r="E152" s="55" t="s">
+      <c r="D152" s="50"/>
+      <c r="E152" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F152" s="57"/>
+      <c r="G152" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H152" s="51"/>
+      <c r="I152" s="51"/>
+      <c r="J152" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="F152" s="56"/>
-      <c r="G152" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="H152" s="47"/>
-      <c r="I152" s="47"/>
-      <c r="J152" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="K152" s="47"/>
-      <c r="L152" s="47"/>
-      <c r="M152" s="48" t="s">
-        <v>24</v>
+      <c r="K152" s="51"/>
+      <c r="L152" s="51"/>
+      <c r="M152" s="47" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A153" s="52"/>
-      <c r="B153" s="53"/>
-      <c r="C153" s="54"/>
-      <c r="D153" s="54"/>
-      <c r="E153" s="57"/>
-      <c r="F153" s="57"/>
-      <c r="G153" s="47"/>
-      <c r="H153" s="47"/>
-      <c r="I153" s="47"/>
-      <c r="J153" s="47"/>
-      <c r="K153" s="47"/>
-      <c r="L153" s="47"/>
-      <c r="M153" s="49"/>
-    </row>
-    <row r="154" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="46"/>
+      <c r="B153" s="50"/>
+      <c r="C153" s="55"/>
+      <c r="D153" s="55"/>
+      <c r="E153" s="58"/>
+      <c r="F153" s="58"/>
+      <c r="G153" s="51"/>
+      <c r="H153" s="51"/>
+      <c r="I153" s="51"/>
+      <c r="J153" s="51"/>
+      <c r="K153" s="51"/>
+      <c r="L153" s="51"/>
+      <c r="M153" s="48"/>
+    </row>
+    <row r="154" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="17">
         <v>1</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C154" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="D154" s="50"/>
-      <c r="E154" s="41"/>
-      <c r="F154" s="41"/>
-      <c r="G154" s="43"/>
-      <c r="H154" s="44"/>
-      <c r="I154" s="45"/>
-      <c r="J154" s="43"/>
-      <c r="K154" s="44"/>
-      <c r="L154" s="45"/>
+      <c r="C154" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D154" s="44"/>
+      <c r="E154" s="38"/>
+      <c r="F154" s="38"/>
+      <c r="G154" s="41"/>
+      <c r="H154" s="42"/>
+      <c r="I154" s="43"/>
+      <c r="J154" s="41"/>
+      <c r="K154" s="42"/>
+      <c r="L154" s="43"/>
       <c r="M154" s="18"/>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.3">
@@ -4454,18 +4501,18 @@
       <c r="B155" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C155" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="D155" s="42"/>
-      <c r="E155" s="41"/>
-      <c r="F155" s="41"/>
-      <c r="G155" s="43"/>
-      <c r="H155" s="44"/>
-      <c r="I155" s="45"/>
-      <c r="J155" s="43"/>
-      <c r="K155" s="44"/>
-      <c r="L155" s="45"/>
+      <c r="C155" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D155" s="39"/>
+      <c r="E155" s="38"/>
+      <c r="F155" s="38"/>
+      <c r="G155" s="41"/>
+      <c r="H155" s="42"/>
+      <c r="I155" s="43"/>
+      <c r="J155" s="41"/>
+      <c r="K155" s="42"/>
+      <c r="L155" s="43"/>
       <c r="M155" s="18"/>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.3">
@@ -4473,24 +4520,24 @@
         <v>3</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C156" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="D156" s="42"/>
-      <c r="E156" s="41"/>
-      <c r="F156" s="41"/>
-      <c r="G156" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="H156" s="44"/>
-      <c r="I156" s="45"/>
-      <c r="J156" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="K156" s="44"/>
-      <c r="L156" s="45"/>
+        <v>29</v>
+      </c>
+      <c r="C156" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D156" s="39"/>
+      <c r="E156" s="38"/>
+      <c r="F156" s="38"/>
+      <c r="G156" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="H156" s="42"/>
+      <c r="I156" s="43"/>
+      <c r="J156" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="K156" s="42"/>
+      <c r="L156" s="43"/>
       <c r="M156" s="23" t="s">
         <v>10</v>
       </c>
@@ -4500,16 +4547,16 @@
         <v>4</v>
       </c>
       <c r="B157" s="7"/>
-      <c r="C157" s="41"/>
-      <c r="D157" s="42"/>
-      <c r="E157" s="41"/>
-      <c r="F157" s="41"/>
-      <c r="G157" s="43"/>
-      <c r="H157" s="44"/>
-      <c r="I157" s="45"/>
-      <c r="J157" s="43"/>
-      <c r="K157" s="44"/>
-      <c r="L157" s="45"/>
+      <c r="C157" s="38"/>
+      <c r="D157" s="39"/>
+      <c r="E157" s="38"/>
+      <c r="F157" s="38"/>
+      <c r="G157" s="41"/>
+      <c r="H157" s="42"/>
+      <c r="I157" s="43"/>
+      <c r="J157" s="41"/>
+      <c r="K157" s="42"/>
+      <c r="L157" s="43"/>
       <c r="M157" s="18"/>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.3">
@@ -4517,16 +4564,16 @@
         <v>5</v>
       </c>
       <c r="B158" s="7"/>
-      <c r="C158" s="41"/>
-      <c r="D158" s="42"/>
-      <c r="E158" s="41"/>
-      <c r="F158" s="41"/>
-      <c r="G158" s="43"/>
-      <c r="H158" s="44"/>
-      <c r="I158" s="45"/>
-      <c r="J158" s="43"/>
-      <c r="K158" s="44"/>
-      <c r="L158" s="45"/>
+      <c r="C158" s="38"/>
+      <c r="D158" s="39"/>
+      <c r="E158" s="38"/>
+      <c r="F158" s="38"/>
+      <c r="G158" s="41"/>
+      <c r="H158" s="42"/>
+      <c r="I158" s="43"/>
+      <c r="J158" s="41"/>
+      <c r="K158" s="42"/>
+      <c r="L158" s="43"/>
       <c r="M158" s="18"/>
     </row>
     <row r="159" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4534,39 +4581,39 @@
         <v>6</v>
       </c>
       <c r="B159" s="20"/>
-      <c r="C159" s="31"/>
-      <c r="D159" s="32"/>
-      <c r="E159" s="31"/>
-      <c r="F159" s="31"/>
-      <c r="G159" s="33"/>
-      <c r="H159" s="34"/>
-      <c r="I159" s="35"/>
-      <c r="J159" s="33"/>
-      <c r="K159" s="34"/>
-      <c r="L159" s="35"/>
+      <c r="C159" s="36"/>
+      <c r="D159" s="37"/>
+      <c r="E159" s="36"/>
+      <c r="F159" s="36"/>
+      <c r="G159" s="52"/>
+      <c r="H159" s="53"/>
+      <c r="I159" s="54"/>
+      <c r="J159" s="52"/>
+      <c r="K159" s="53"/>
+      <c r="L159" s="54"/>
       <c r="M159" s="21"/>
     </row>
     <row r="160" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="161" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A161" s="58" t="s">
+      <c r="A161" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B161" s="59"/>
+      <c r="B161" s="32"/>
       <c r="C161" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D161" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D161" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="E161" s="59"/>
-      <c r="F161" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G161" s="61"/>
-      <c r="H161" s="61"/>
-      <c r="I161" s="61"/>
-      <c r="J161" s="61"/>
-      <c r="K161" s="62"/>
+      <c r="E161" s="32"/>
+      <c r="F161" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="G161" s="34"/>
+      <c r="H161" s="34"/>
+      <c r="I161" s="34"/>
+      <c r="J161" s="34"/>
+      <c r="K161" s="35"/>
       <c r="L161" s="13"/>
       <c r="M161" s="14"/>
     </row>
@@ -4586,68 +4633,62 @@
       <c r="M162" s="16"/>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A163" s="51" t="s">
+      <c r="A163" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B163" s="46" t="s">
+      <c r="B163" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C163" s="46" t="s">
+      <c r="C163" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D163" s="53"/>
-      <c r="E163" s="55" t="s">
+      <c r="D163" s="50"/>
+      <c r="E163" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F163" s="57"/>
+      <c r="G163" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H163" s="51"/>
+      <c r="I163" s="51"/>
+      <c r="J163" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="F163" s="56"/>
-      <c r="G163" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="H163" s="47"/>
-      <c r="I163" s="47"/>
-      <c r="J163" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="K163" s="47"/>
-      <c r="L163" s="47"/>
-      <c r="M163" s="48" t="s">
-        <v>24</v>
+      <c r="K163" s="51"/>
+      <c r="L163" s="51"/>
+      <c r="M163" s="47" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A164" s="52"/>
-      <c r="B164" s="53"/>
-      <c r="C164" s="54"/>
-      <c r="D164" s="54"/>
-      <c r="E164" s="57"/>
-      <c r="F164" s="57"/>
-      <c r="G164" s="47"/>
-      <c r="H164" s="47"/>
-      <c r="I164" s="47"/>
-      <c r="J164" s="47"/>
-      <c r="K164" s="47"/>
-      <c r="L164" s="47"/>
-      <c r="M164" s="49"/>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A164" s="46"/>
+      <c r="B164" s="50"/>
+      <c r="C164" s="55"/>
+      <c r="D164" s="55"/>
+      <c r="E164" s="58"/>
+      <c r="F164" s="58"/>
+      <c r="G164" s="51"/>
+      <c r="H164" s="51"/>
+      <c r="I164" s="51"/>
+      <c r="J164" s="51"/>
+      <c r="K164" s="51"/>
+      <c r="L164" s="51"/>
+      <c r="M164" s="48"/>
+    </row>
+    <row r="165" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="17">
         <v>1</v>
       </c>
       <c r="B165" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C165" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="D165" s="50"/>
-      <c r="E165" s="41"/>
-      <c r="F165" s="41"/>
-      <c r="G165" s="43"/>
-      <c r="H165" s="44"/>
-      <c r="I165" s="45"/>
-      <c r="J165" s="43"/>
-      <c r="K165" s="44"/>
-      <c r="L165" s="45"/>
+      <c r="C165" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D165" s="44"/>
+      <c r="E165" s="38"/>
+      <c r="F165" s="38"/>
       <c r="M165" s="18"/>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.3">
@@ -4657,35 +4698,43 @@
       <c r="B166" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C166" s="41"/>
-      <c r="D166" s="42"/>
-      <c r="E166" s="41"/>
-      <c r="F166" s="41"/>
-      <c r="G166" s="43"/>
-      <c r="H166" s="44"/>
-      <c r="I166" s="45"/>
-      <c r="J166" s="43"/>
-      <c r="K166" s="44"/>
-      <c r="L166" s="45"/>
-      <c r="M166" s="18"/>
+      <c r="C166" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="D166" s="39"/>
+      <c r="E166" s="38"/>
+      <c r="F166" s="38"/>
+      <c r="G166" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="H166" s="42"/>
+      <c r="I166" s="43"/>
+      <c r="J166" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="K166" s="42"/>
+      <c r="L166" s="43"/>
+      <c r="M166" s="23" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" s="17">
         <v>3</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C167" s="41"/>
-      <c r="D167" s="42"/>
-      <c r="E167" s="41"/>
-      <c r="F167" s="41"/>
-      <c r="G167" s="43"/>
-      <c r="H167" s="44"/>
-      <c r="I167" s="45"/>
-      <c r="J167" s="43"/>
-      <c r="K167" s="44"/>
-      <c r="L167" s="45"/>
+        <v>29</v>
+      </c>
+      <c r="C167" s="38"/>
+      <c r="D167" s="39"/>
+      <c r="E167" s="38"/>
+      <c r="F167" s="38"/>
+      <c r="G167" s="41"/>
+      <c r="H167" s="42"/>
+      <c r="I167" s="43"/>
+      <c r="J167" s="41"/>
+      <c r="K167" s="42"/>
+      <c r="L167" s="43"/>
       <c r="M167" s="18"/>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.3">
@@ -4693,16 +4742,16 @@
         <v>4</v>
       </c>
       <c r="B168" s="7"/>
-      <c r="C168" s="41"/>
-      <c r="D168" s="42"/>
-      <c r="E168" s="41"/>
-      <c r="F168" s="41"/>
-      <c r="G168" s="43"/>
-      <c r="H168" s="44"/>
-      <c r="I168" s="45"/>
-      <c r="J168" s="43"/>
-      <c r="K168" s="44"/>
-      <c r="L168" s="45"/>
+      <c r="C168" s="38"/>
+      <c r="D168" s="39"/>
+      <c r="E168" s="38"/>
+      <c r="F168" s="38"/>
+      <c r="G168" s="41"/>
+      <c r="H168" s="42"/>
+      <c r="I168" s="43"/>
+      <c r="J168" s="41"/>
+      <c r="K168" s="42"/>
+      <c r="L168" s="43"/>
       <c r="M168" s="18"/>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.3">
@@ -4710,16 +4759,16 @@
         <v>5</v>
       </c>
       <c r="B169" s="7"/>
-      <c r="C169" s="41"/>
-      <c r="D169" s="42"/>
-      <c r="E169" s="41"/>
-      <c r="F169" s="41"/>
-      <c r="G169" s="43"/>
-      <c r="H169" s="44"/>
-      <c r="I169" s="45"/>
-      <c r="J169" s="43"/>
-      <c r="K169" s="44"/>
-      <c r="L169" s="45"/>
+      <c r="C169" s="38"/>
+      <c r="D169" s="39"/>
+      <c r="E169" s="38"/>
+      <c r="F169" s="38"/>
+      <c r="G169" s="41"/>
+      <c r="H169" s="42"/>
+      <c r="I169" s="43"/>
+      <c r="J169" s="41"/>
+      <c r="K169" s="42"/>
+      <c r="L169" s="43"/>
       <c r="M169" s="18"/>
     </row>
     <row r="170" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4727,518 +4776,478 @@
         <v>6</v>
       </c>
       <c r="B170" s="20"/>
-      <c r="C170" s="31"/>
-      <c r="D170" s="32"/>
-      <c r="E170" s="31"/>
-      <c r="F170" s="31"/>
-      <c r="G170" s="33"/>
-      <c r="H170" s="34"/>
-      <c r="I170" s="35"/>
-      <c r="J170" s="33"/>
-      <c r="K170" s="34"/>
-      <c r="L170" s="35"/>
+      <c r="C170" s="36"/>
+      <c r="D170" s="37"/>
+      <c r="E170" s="36"/>
+      <c r="F170" s="36"/>
+      <c r="G170" s="52"/>
+      <c r="H170" s="53"/>
+      <c r="I170" s="54"/>
+      <c r="J170" s="52"/>
+      <c r="K170" s="53"/>
+      <c r="L170" s="54"/>
       <c r="M170" s="21"/>
     </row>
+    <row r="171" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A172" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B172" s="32"/>
+      <c r="C172" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D172" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E172" s="32"/>
+      <c r="F172" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="G172" s="34"/>
+      <c r="H172" s="34"/>
+      <c r="I172" s="34"/>
+      <c r="J172" s="34"/>
+      <c r="K172" s="35"/>
+      <c r="L172" s="13"/>
+      <c r="M172" s="14"/>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A173" s="15"/>
+      <c r="B173" s="11"/>
+      <c r="C173" s="8"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="11"/>
+      <c r="F173" s="9"/>
+      <c r="G173" s="9"/>
+      <c r="H173" s="9"/>
+      <c r="I173" s="9"/>
+      <c r="J173" s="9"/>
+      <c r="K173" s="9"/>
+      <c r="L173" s="3"/>
+      <c r="M173" s="16"/>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A174" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B174" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D174" s="50"/>
+      <c r="E174" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F174" s="57"/>
+      <c r="G174" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H174" s="51"/>
+      <c r="I174" s="51"/>
+      <c r="J174" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="K174" s="51"/>
+      <c r="L174" s="51"/>
+      <c r="M174" s="47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A175" s="46"/>
+      <c r="B175" s="50"/>
+      <c r="C175" s="55"/>
+      <c r="D175" s="55"/>
+      <c r="E175" s="58"/>
+      <c r="F175" s="58"/>
+      <c r="G175" s="51"/>
+      <c r="H175" s="51"/>
+      <c r="I175" s="51"/>
+      <c r="J175" s="51"/>
+      <c r="K175" s="51"/>
+      <c r="L175" s="51"/>
+      <c r="M175" s="48"/>
+    </row>
+    <row r="176" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="17">
+        <v>1</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D176" s="44"/>
+      <c r="E176" s="38"/>
+      <c r="F176" s="38"/>
+      <c r="G176" s="41"/>
+      <c r="H176" s="42"/>
+      <c r="I176" s="43"/>
+      <c r="J176" s="41"/>
+      <c r="K176" s="42"/>
+      <c r="L176" s="43"/>
+      <c r="M176" s="18"/>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A177" s="17">
+        <v>2</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D177" s="39"/>
+      <c r="E177" s="38"/>
+      <c r="F177" s="38"/>
+      <c r="G177" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="H177" s="42"/>
+      <c r="I177" s="43"/>
+      <c r="J177" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="K177" s="42"/>
+      <c r="L177" s="43"/>
+      <c r="M177" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A178" s="17">
+        <v>3</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C178" s="38"/>
+      <c r="D178" s="39"/>
+      <c r="E178" s="38"/>
+      <c r="F178" s="38"/>
+      <c r="G178" s="41"/>
+      <c r="H178" s="42"/>
+      <c r="I178" s="43"/>
+      <c r="J178" s="41"/>
+      <c r="K178" s="42"/>
+      <c r="L178" s="43"/>
+      <c r="M178" s="18"/>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A179" s="17">
+        <v>4</v>
+      </c>
+      <c r="B179" s="7"/>
+      <c r="C179" s="38"/>
+      <c r="D179" s="39"/>
+      <c r="E179" s="38"/>
+      <c r="F179" s="38"/>
+      <c r="G179" s="41"/>
+      <c r="H179" s="42"/>
+      <c r="I179" s="43"/>
+      <c r="J179" s="41"/>
+      <c r="K179" s="42"/>
+      <c r="L179" s="43"/>
+      <c r="M179" s="18"/>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A180" s="17">
+        <v>5</v>
+      </c>
+      <c r="B180" s="7"/>
+      <c r="C180" s="38"/>
+      <c r="D180" s="39"/>
+      <c r="E180" s="38"/>
+      <c r="F180" s="38"/>
+      <c r="G180" s="41"/>
+      <c r="H180" s="42"/>
+      <c r="I180" s="43"/>
+      <c r="J180" s="41"/>
+      <c r="K180" s="42"/>
+      <c r="L180" s="43"/>
+      <c r="M180" s="18"/>
+    </row>
+    <row r="181" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="19">
+        <v>6</v>
+      </c>
+      <c r="B181" s="20"/>
+      <c r="C181" s="36"/>
+      <c r="D181" s="37"/>
+      <c r="E181" s="36"/>
+      <c r="F181" s="36"/>
+      <c r="G181" s="52"/>
+      <c r="H181" s="53"/>
+      <c r="I181" s="54"/>
+      <c r="J181" s="52"/>
+      <c r="K181" s="53"/>
+      <c r="L181" s="54"/>
+      <c r="M181" s="21"/>
+    </row>
+    <row r="182" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A183" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B183" s="32"/>
+      <c r="C183" s="12"/>
+      <c r="D183" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E183" s="32"/>
+      <c r="F183" s="34"/>
+      <c r="G183" s="34"/>
+      <c r="H183" s="34"/>
+      <c r="I183" s="34"/>
+      <c r="J183" s="34"/>
+      <c r="K183" s="35"/>
+      <c r="L183" s="13"/>
+      <c r="M183" s="14"/>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A184" s="15"/>
+      <c r="B184" s="11"/>
+      <c r="C184" s="8"/>
+      <c r="D184" s="10"/>
+      <c r="E184" s="11"/>
+      <c r="F184" s="9"/>
+      <c r="G184" s="9"/>
+      <c r="H184" s="9"/>
+      <c r="I184" s="9"/>
+      <c r="J184" s="9"/>
+      <c r="K184" s="9"/>
+      <c r="L184" s="3"/>
+      <c r="M184" s="16"/>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A185" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B185" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C185" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D185" s="50"/>
+      <c r="E185" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F185" s="57"/>
+      <c r="G185" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H185" s="51"/>
+      <c r="I185" s="51"/>
+      <c r="J185" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="K185" s="51"/>
+      <c r="L185" s="51"/>
+      <c r="M185" s="47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A186" s="46"/>
+      <c r="B186" s="50"/>
+      <c r="C186" s="55"/>
+      <c r="D186" s="55"/>
+      <c r="E186" s="58"/>
+      <c r="F186" s="58"/>
+      <c r="G186" s="51"/>
+      <c r="H186" s="51"/>
+      <c r="I186" s="51"/>
+      <c r="J186" s="51"/>
+      <c r="K186" s="51"/>
+      <c r="L186" s="51"/>
+      <c r="M186" s="48"/>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A187" s="17">
+        <v>1</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C187" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D187" s="44"/>
+      <c r="E187" s="38"/>
+      <c r="F187" s="38"/>
+      <c r="G187" s="41"/>
+      <c r="H187" s="42"/>
+      <c r="I187" s="43"/>
+      <c r="J187" s="41"/>
+      <c r="K187" s="42"/>
+      <c r="L187" s="43"/>
+      <c r="M187" s="18"/>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A188" s="17">
+        <v>2</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188" s="38"/>
+      <c r="D188" s="39"/>
+      <c r="E188" s="38"/>
+      <c r="F188" s="38"/>
+      <c r="G188" s="41"/>
+      <c r="H188" s="42"/>
+      <c r="I188" s="43"/>
+      <c r="J188" s="41"/>
+      <c r="K188" s="42"/>
+      <c r="L188" s="43"/>
+      <c r="M188" s="18"/>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A189" s="17">
+        <v>3</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C189" s="38"/>
+      <c r="D189" s="39"/>
+      <c r="E189" s="38"/>
+      <c r="F189" s="38"/>
+      <c r="G189" s="41"/>
+      <c r="H189" s="42"/>
+      <c r="I189" s="43"/>
+      <c r="J189" s="41"/>
+      <c r="K189" s="42"/>
+      <c r="L189" s="43"/>
+      <c r="M189" s="18"/>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A190" s="17">
+        <v>4</v>
+      </c>
+      <c r="B190" s="7"/>
+      <c r="C190" s="38"/>
+      <c r="D190" s="39"/>
+      <c r="E190" s="38"/>
+      <c r="F190" s="38"/>
+      <c r="G190" s="41"/>
+      <c r="H190" s="42"/>
+      <c r="I190" s="43"/>
+      <c r="J190" s="41"/>
+      <c r="K190" s="42"/>
+      <c r="L190" s="43"/>
+      <c r="M190" s="18"/>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A191" s="17">
+        <v>5</v>
+      </c>
+      <c r="B191" s="7"/>
+      <c r="C191" s="38"/>
+      <c r="D191" s="39"/>
+      <c r="E191" s="38"/>
+      <c r="F191" s="38"/>
+      <c r="G191" s="41"/>
+      <c r="H191" s="42"/>
+      <c r="I191" s="43"/>
+      <c r="J191" s="41"/>
+      <c r="K191" s="42"/>
+      <c r="L191" s="43"/>
+      <c r="M191" s="18"/>
+    </row>
+    <row r="192" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="19">
+        <v>6</v>
+      </c>
+      <c r="B192" s="20"/>
+      <c r="C192" s="36"/>
+      <c r="D192" s="37"/>
+      <c r="E192" s="36"/>
+      <c r="F192" s="36"/>
+      <c r="G192" s="52"/>
+      <c r="H192" s="53"/>
+      <c r="I192" s="54"/>
+      <c r="J192" s="52"/>
+      <c r="K192" s="53"/>
+      <c r="L192" s="54"/>
+      <c r="M192" s="21"/>
+    </row>
   </sheetData>
-  <mergeCells count="522">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J5:L6"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="G16:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J16:L17"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:K25"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E27:F28"/>
-    <mergeCell ref="G27:I28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="J27:L28"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:K36"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:I39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="J38:L39"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:K47"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:F50"/>
-    <mergeCell ref="G49:I50"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="J49:L50"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:K62"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="M64:M65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:L66"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:D65"/>
-    <mergeCell ref="E64:F65"/>
-    <mergeCell ref="G64:I65"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="J67:L67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="J68:L68"/>
-    <mergeCell ref="J64:L65"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="J71:L71"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F73:K73"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="J69:L69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="J70:L70"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="J77:L77"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:F76"/>
-    <mergeCell ref="G75:I76"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="J78:L78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="J79:L79"/>
-    <mergeCell ref="J75:L76"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="J82:L82"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:K84"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="J80:L80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="J81:L81"/>
-    <mergeCell ref="M86:M87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="J88:L88"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:D87"/>
-    <mergeCell ref="E86:F87"/>
-    <mergeCell ref="G86:I87"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="J89:L89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="J90:L90"/>
-    <mergeCell ref="J86:L87"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="J93:L93"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="F95:K95"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="J91:L91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="J92:L92"/>
-    <mergeCell ref="M97:M98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="J99:L99"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:F98"/>
-    <mergeCell ref="G97:I98"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="J100:L100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="J101:L101"/>
-    <mergeCell ref="J97:L98"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="J104:L104"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:K106"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="J102:L102"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="J103:L103"/>
-    <mergeCell ref="M108:M109"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="J110:L110"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:D109"/>
-    <mergeCell ref="E108:F109"/>
-    <mergeCell ref="G108:I109"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="J111:L111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="J112:L112"/>
-    <mergeCell ref="J108:L109"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="J115:L115"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="F117:K117"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="J113:L113"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="J114:L114"/>
-    <mergeCell ref="M119:M120"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="J121:L121"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:D120"/>
-    <mergeCell ref="E119:F120"/>
-    <mergeCell ref="G119:I120"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="J122:L122"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="J123:L123"/>
-    <mergeCell ref="J119:L120"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="J126:L126"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="F128:K128"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="J124:L124"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="J125:L125"/>
-    <mergeCell ref="M130:M131"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="J132:L132"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="C130:D131"/>
-    <mergeCell ref="E130:F131"/>
-    <mergeCell ref="G130:I131"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="J133:L133"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="J134:L134"/>
-    <mergeCell ref="J130:L131"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="J137:L137"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="F139:K139"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="J135:L135"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="J136:L136"/>
-    <mergeCell ref="M141:M142"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="E143:F143"/>
-    <mergeCell ref="G143:I143"/>
-    <mergeCell ref="J143:L143"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:D142"/>
-    <mergeCell ref="E141:F142"/>
-    <mergeCell ref="G141:I142"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="E144:F144"/>
-    <mergeCell ref="G144:I144"/>
-    <mergeCell ref="J144:L144"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="G145:I145"/>
-    <mergeCell ref="J145:L145"/>
-    <mergeCell ref="J141:L142"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="E148:F148"/>
-    <mergeCell ref="G148:I148"/>
-    <mergeCell ref="J148:L148"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="F150:K150"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="E146:F146"/>
-    <mergeCell ref="G146:I146"/>
-    <mergeCell ref="J146:L146"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="G147:I147"/>
-    <mergeCell ref="J147:L147"/>
-    <mergeCell ref="M152:M153"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="E154:F154"/>
-    <mergeCell ref="G154:I154"/>
-    <mergeCell ref="J154:L154"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="C152:D153"/>
-    <mergeCell ref="E152:F153"/>
-    <mergeCell ref="G152:I153"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="E155:F155"/>
-    <mergeCell ref="G155:I155"/>
-    <mergeCell ref="J155:L155"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="E156:F156"/>
-    <mergeCell ref="G156:I156"/>
-    <mergeCell ref="J156:L156"/>
-    <mergeCell ref="J152:L153"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="G159:I159"/>
-    <mergeCell ref="J159:L159"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="F161:K161"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="E157:F157"/>
-    <mergeCell ref="G157:I157"/>
-    <mergeCell ref="J157:L157"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="E158:F158"/>
-    <mergeCell ref="G158:I158"/>
-    <mergeCell ref="J158:L158"/>
-    <mergeCell ref="M163:M164"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="G165:I165"/>
-    <mergeCell ref="J165:L165"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="C163:D164"/>
-    <mergeCell ref="E163:F164"/>
-    <mergeCell ref="G163:I164"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="G166:I166"/>
-    <mergeCell ref="J166:L166"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="G167:I167"/>
-    <mergeCell ref="J167:L167"/>
-    <mergeCell ref="J163:L164"/>
+  <mergeCells count="588">
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="E192:F192"/>
+    <mergeCell ref="G192:I192"/>
+    <mergeCell ref="J192:L192"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="E189:F189"/>
+    <mergeCell ref="G189:I189"/>
+    <mergeCell ref="J189:L189"/>
+    <mergeCell ref="C190:D190"/>
+    <mergeCell ref="E190:F190"/>
+    <mergeCell ref="G190:I190"/>
+    <mergeCell ref="J190:L190"/>
+    <mergeCell ref="C191:D191"/>
+    <mergeCell ref="E191:F191"/>
+    <mergeCell ref="G191:I191"/>
+    <mergeCell ref="J191:L191"/>
+    <mergeCell ref="M185:M186"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="E187:F187"/>
+    <mergeCell ref="G187:I187"/>
+    <mergeCell ref="J187:L187"/>
+    <mergeCell ref="C188:D188"/>
+    <mergeCell ref="E188:F188"/>
+    <mergeCell ref="G188:I188"/>
+    <mergeCell ref="J188:L188"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="E181:F181"/>
+    <mergeCell ref="G181:I181"/>
+    <mergeCell ref="J181:L181"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="D183:E183"/>
+    <mergeCell ref="F183:K183"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="C185:D186"/>
+    <mergeCell ref="E185:F186"/>
+    <mergeCell ref="G185:I186"/>
+    <mergeCell ref="J185:L186"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="E178:F178"/>
+    <mergeCell ref="G178:I178"/>
+    <mergeCell ref="J178:L178"/>
+    <mergeCell ref="C179:D179"/>
+    <mergeCell ref="E179:F179"/>
+    <mergeCell ref="G179:I179"/>
+    <mergeCell ref="J179:L179"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="E180:F180"/>
+    <mergeCell ref="G180:I180"/>
+    <mergeCell ref="J180:L180"/>
+    <mergeCell ref="M174:M175"/>
+    <mergeCell ref="C176:D176"/>
+    <mergeCell ref="E176:F176"/>
+    <mergeCell ref="G176:I176"/>
+    <mergeCell ref="J176:L176"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="E177:F177"/>
+    <mergeCell ref="G177:I177"/>
+    <mergeCell ref="J177:L177"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="D172:E172"/>
+    <mergeCell ref="F172:K172"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="C174:D175"/>
+    <mergeCell ref="E174:F175"/>
+    <mergeCell ref="G174:I175"/>
+    <mergeCell ref="J174:L175"/>
     <mergeCell ref="C170:D170"/>
     <mergeCell ref="E170:F170"/>
     <mergeCell ref="G170:I170"/>
@@ -5263,6 +5272,502 @@
     <mergeCell ref="E169:F169"/>
     <mergeCell ref="G169:I169"/>
     <mergeCell ref="J169:L169"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="G167:I167"/>
+    <mergeCell ref="J167:L167"/>
+    <mergeCell ref="J163:L164"/>
+    <mergeCell ref="M163:M164"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="G166:I166"/>
+    <mergeCell ref="J166:L166"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="C163:D164"/>
+    <mergeCell ref="E163:F164"/>
+    <mergeCell ref="G163:I164"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="G159:I159"/>
+    <mergeCell ref="J159:L159"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="F161:K161"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="G157:I157"/>
+    <mergeCell ref="J157:L157"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="G158:I158"/>
+    <mergeCell ref="J158:L158"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="G155:I155"/>
+    <mergeCell ref="J155:L155"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="E156:F156"/>
+    <mergeCell ref="G156:I156"/>
+    <mergeCell ref="J156:L156"/>
+    <mergeCell ref="J152:L153"/>
+    <mergeCell ref="M152:M153"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="E154:F154"/>
+    <mergeCell ref="G154:I154"/>
+    <mergeCell ref="J154:L154"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="C152:D153"/>
+    <mergeCell ref="E152:F153"/>
+    <mergeCell ref="G152:I153"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="G148:I148"/>
+    <mergeCell ref="J148:L148"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="F150:K150"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="G146:I146"/>
+    <mergeCell ref="J146:L146"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="G147:I147"/>
+    <mergeCell ref="J147:L147"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="E144:F144"/>
+    <mergeCell ref="G144:I144"/>
+    <mergeCell ref="J144:L144"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="G145:I145"/>
+    <mergeCell ref="J145:L145"/>
+    <mergeCell ref="J141:L142"/>
+    <mergeCell ref="M141:M142"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="E143:F143"/>
+    <mergeCell ref="G143:I143"/>
+    <mergeCell ref="J143:L143"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:D142"/>
+    <mergeCell ref="E141:F142"/>
+    <mergeCell ref="G141:I142"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="J137:L137"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="F139:K139"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="J135:L135"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="J136:L136"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="J133:L133"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="J134:L134"/>
+    <mergeCell ref="J130:L131"/>
+    <mergeCell ref="M130:M131"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="J132:L132"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="C130:D131"/>
+    <mergeCell ref="E130:F131"/>
+    <mergeCell ref="G130:I131"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="J126:L126"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="F128:K128"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="J124:L124"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="J125:L125"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="J122:L122"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="J123:L123"/>
+    <mergeCell ref="J119:L120"/>
+    <mergeCell ref="M119:M120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="J121:L121"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:D120"/>
+    <mergeCell ref="E119:F120"/>
+    <mergeCell ref="G119:I120"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="J115:L115"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="F117:K117"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="J113:L113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="J114:L114"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="J111:L111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="J112:L112"/>
+    <mergeCell ref="J108:L109"/>
+    <mergeCell ref="M108:M109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="J110:L110"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:D109"/>
+    <mergeCell ref="E108:F109"/>
+    <mergeCell ref="G108:I109"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="J104:L104"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:K106"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="J102:L102"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="J103:L103"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="J100:L100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="J101:L101"/>
+    <mergeCell ref="J97:L98"/>
+    <mergeCell ref="M97:M98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="J99:L99"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:F98"/>
+    <mergeCell ref="G97:I98"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="J93:L93"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:K95"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="J91:L91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="J92:L92"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="J89:L89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="J90:L90"/>
+    <mergeCell ref="J86:L87"/>
+    <mergeCell ref="M86:M87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="J88:L88"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:D87"/>
+    <mergeCell ref="E86:F87"/>
+    <mergeCell ref="G86:I87"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="J82:L82"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:K84"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="J80:L80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="J81:L81"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="J78:L78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="J79:L79"/>
+    <mergeCell ref="J75:L76"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="J77:L77"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:F76"/>
+    <mergeCell ref="G75:I76"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="J71:L71"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:K73"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="J69:L69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="J70:L70"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="J68:L68"/>
+    <mergeCell ref="J64:L65"/>
+    <mergeCell ref="M64:M65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:L66"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="E64:F65"/>
+    <mergeCell ref="G64:I65"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:K62"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="J49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:F50"/>
+    <mergeCell ref="G49:I50"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:K47"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="J38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:I39"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:K36"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:F28"/>
+    <mergeCell ref="G27:I28"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:K25"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:I17"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J5:L6"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E9" r:id="rId1" xr:uid="{C65242FA-AF30-4704-B4B8-D581117333C8}"/>
